--- a/data/hotels_by_city/Denver/Denver_shard_99.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_99.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="331">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g609128-d12384295-Reviews-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
   </si>
   <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Hampton-Inn-Suites-Denver-Tech-Center.h208594.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,867 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r599735234-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>609128</t>
+  </si>
+  <si>
+    <t>12384295</t>
+  </si>
+  <si>
+    <t>599735234</t>
+  </si>
+  <si>
+    <t>07/25/2018</t>
+  </si>
+  <si>
+    <t>A good place to stay</t>
+  </si>
+  <si>
+    <t>The staff during the day was excellent.  Richie is one of the most helpful person I've dealt with at a hotel in a long time.  The hotel is not a good place for a handicap person traveling alone.   I called three times before arriving to confirm wheelchair accessible bathroom that wasn't available when I arrived.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r598658894-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>598658894</t>
+  </si>
+  <si>
+    <t>07/22/2018</t>
+  </si>
+  <si>
+    <t>Great place to stay !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The staff was very friendly and helpful beginning with check-in to the people st the front desk. The only thing is they were low on breakfast items fairly early.  Rooms were clean. Beds and pillows were great. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r596460370-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>596460370</t>
+  </si>
+  <si>
+    <t>07/15/2018</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wonderful staff! Extremely clean, and comfortable beds. Highly recommend staying here. If you want a good night's rest stay here. Close to Top golf which is fun, also close to many stores. Easy to find. The cute sayings they have all over the hotel brightened our evening and morning after staying in a hospital for a few days. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r593056972-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>593056972</t>
+  </si>
+  <si>
+    <t>07/04/2018</t>
+  </si>
+  <si>
+    <t>Enjoyable family stay</t>
+  </si>
+  <si>
+    <t>Very nice new and clean hotel. Good hot breakfast. Friendly staff. Very easy access to freeway. Close to wal.art and other restaurants. About 20 min to downtown denver, via freeway. No hot tub, clean pool.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>Michelle F, General Manager at Hampton Inn Denver Tech Center South, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Very nice new and clean hotel. Good hot breakfast. Friendly staff. Very easy access to freeway. Close to wal.art and other restaurants. About 20 min to downtown denver, via freeway. No hot tub, clean pool.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r590758031-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>590758031</t>
+  </si>
+  <si>
+    <t>06/25/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel!</t>
+  </si>
+  <si>
+    <t>The hotel is fairly new, so the rooms and property are clean and in great condition. It’s located in a great area of DTC near Top Golf, a Walmart Super Center and several restaurants within walking distance. The staff was helpful and very friendly. The free breakfasts just ok, but hey, it’s free. Overall it was an excellent stay in great area of the city.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>The hotel is fairly new, so the rooms and property are clean and in great condition. It’s located in a great area of DTC near Top Golf, a Walmart Super Center and several restaurants within walking distance. The staff was helpful and very friendly. The free breakfasts just ok, but hey, it’s free. Overall it was an excellent stay in great area of the city.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r590100434-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>590100434</t>
+  </si>
+  <si>
+    <t>06/23/2018</t>
+  </si>
+  <si>
+    <t>Amazing hotel</t>
+  </si>
+  <si>
+    <t>Amazing hotel, nothing bad to say. The only thing I will say is bring your own drink. A bottle drink and a bag of chips was five dollars. I found the hotel quiet, comfortable, relaxing. There was a very nice breakfast in the morning. I would definitely stay againMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Amazing hotel, nothing bad to say. The only thing I will say is bring your own drink. A bottle drink and a bag of chips was five dollars. I found the hotel quiet, comfortable, relaxing. There was a very nice breakfast in the morning. I would definitely stay againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r584000171-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>584000171</t>
+  </si>
+  <si>
+    <t>05/30/2018</t>
+  </si>
+  <si>
+    <t>New and nice</t>
+  </si>
+  <si>
+    <t>New hotel near Centennial Airport. Friendly, helpful staff. Clean room. Excellent, healthy choices for breakfast. WiFi worked good with smartphones and tablets, but failed to redirect login with laptop. MoreShow less</t>
+  </si>
+  <si>
+    <t>New hotel near Centennial Airport. Friendly, helpful staff. Clean room. Excellent, healthy choices for breakfast. WiFi worked good with smartphones and tablets, but failed to redirect login with laptop. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r583308371-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>583308371</t>
+  </si>
+  <si>
+    <t>05/28/2018</t>
+  </si>
+  <si>
+    <t>NEW and the price was right!!</t>
+  </si>
+  <si>
+    <t>It is a new hotel... close to E470 and I25.. I like the location being near for me to go stay a night and head to the airport.. Wish they had a hot tub... breakfast was good.. The person working at the front desk was nice and offered me extra bottle of water for my babys formula... Being a Diamond member, its the little things that counts... if prices stay low and competitive and standards of hotel remains, ill be staing here for years to come.... MoreShow less</t>
+  </si>
+  <si>
+    <t>It is a new hotel... close to E470 and I25.. I like the location being near for me to go stay a night and head to the airport.. Wish they had a hot tub... breakfast was good.. The person working at the front desk was nice and offered me extra bottle of water for my babys formula... Being a Diamond member, its the little things that counts... if prices stay low and competitive and standards of hotel remains, ill be staing here for years to come.... More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r580888152-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>580888152</t>
+  </si>
+  <si>
+    <t>05/17/2018</t>
+  </si>
+  <si>
+    <t>Nice new hotel.</t>
+  </si>
+  <si>
+    <t>This hotel was nice, new and in a great area. The service was good and the rooms are on the higher end of Hampton Inn rooms. I would recommend this hotel for business travelers and families. There is a new Top Golf close by and a Walmart next door in case you need to pick up anything. It is a quick drive to many restaurants and shops in the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was nice, new and in a great area. The service was good and the rooms are on the higher end of Hampton Inn rooms. I would recommend this hotel for business travelers and families. There is a new Top Golf close by and a Walmart next door in case you need to pick up anything. It is a quick drive to many restaurants and shops in the area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r573369525-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>573369525</t>
+  </si>
+  <si>
+    <t>04/14/2018</t>
+  </si>
+  <si>
+    <t>Excellent hotel</t>
+  </si>
+  <si>
+    <t>Excellent hotel, great breakfast, very friendly staff at breakfast.  Rooms are very clean and comfortable.  Hotel is close to restaurants such as the Outback, or retail locations like Target.  I will definitely return to this location for work or personal again. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Michelle F, General Manager at Hampton Inn Denver Tech Center South, responded to this reviewResponded April 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2018</t>
+  </si>
+  <si>
+    <t>Excellent hotel, great breakfast, very friendly staff at breakfast.  Rooms are very clean and comfortable.  Hotel is close to restaurants such as the Outback, or retail locations like Target.  I will definitely return to this location for work or personal again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r572530753-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>572530753</t>
+  </si>
+  <si>
+    <t>04/10/2018</t>
+  </si>
+  <si>
+    <t>Best hotel in Denver</t>
+  </si>
+  <si>
+    <t>Was a great place and very friendly, awesome service. The staff team was outstanding and the location was perfect for our business trip.  Will come back with the family on vacation and recommend to friends.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r569583419-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>569583419</t>
+  </si>
+  <si>
+    <t>03/29/2018</t>
+  </si>
+  <si>
+    <t>Great location to be based from</t>
+  </si>
+  <si>
+    <t>Used this hotel for a business trip.  Access to the area is very centralized and easy to get around (count on about 30 minutes from DIA).  Minutes from Centennial Airport if you are flying private.  Plenty of places to find to eat as well.  The hotel was clean an the staff was great, always was greeted with cheery hello when I came in the door.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r563597018-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>563597018</t>
+  </si>
+  <si>
+    <t>03/01/2018</t>
+  </si>
+  <si>
+    <t>Expectations for Hampton Inn Met</t>
+  </si>
+  <si>
+    <t>I stay at Hampton Inn chain often for business and did so week of Feb 26 at the new(er) HI (Hampton Inn) Tech Center South.  Expectations were all met, which is the point of using these "cookie cutter" type hotels within the chain.  Couple glitches:  A hardware piece fell off the "barn door" type setup used for the bathroom, and the location of the faucet in the bathroom was at one corner of a rectangular sink - very problematic getting usefulness as it was tucked into a corner, with, obviously now, 45 degree walls on either side.  Also, I typically fill the iron directly from the faucet, but due to the odd and irregular placement of the faucet, it wouldn't fit.Breakfast was just as expected and same as it is at all Hampton, and the bed and room were typical, and far more than adequate.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Michelle F, Guest Relations Manager at Hampton Inn Denver Tech Center South, responded to this reviewResponded March 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2018</t>
+  </si>
+  <si>
+    <t>I stay at Hampton Inn chain often for business and did so week of Feb 26 at the new(er) HI (Hampton Inn) Tech Center South.  Expectations were all met, which is the point of using these "cookie cutter" type hotels within the chain.  Couple glitches:  A hardware piece fell off the "barn door" type setup used for the bathroom, and the location of the faucet in the bathroom was at one corner of a rectangular sink - very problematic getting usefulness as it was tucked into a corner, with, obviously now, 45 degree walls on either side.  Also, I typically fill the iron directly from the faucet, but due to the odd and irregular placement of the faucet, it wouldn't fit.Breakfast was just as expected and same as it is at all Hampton, and the bed and room were typical, and far more than adequate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r558447288-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>558447288</t>
+  </si>
+  <si>
+    <t>02/04/2018</t>
+  </si>
+  <si>
+    <t>Perfect for what I needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel provided just what I needed. Complimentary Wi-Fi and breakfast, clean room, easy parking, and near restaurants and shopping. Staff was very friendly and always offering to help. Both bedroom and bathroom are of recent design and not that worn look familiar in other hotels. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r557206343-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>557206343</t>
+  </si>
+  <si>
+    <t>01/29/2018</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>Close to Office, lots of good locations for dinner, close to REI, close to the freeway.  Great customer service with clean tidy rooms, quiet and a fair amount of parking.  i would recommend this location to anybody wanting to stay in the areaMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Michelle F, General Manager at Hampton Inn Denver Tech Center South, responded to this reviewResponded January 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 30, 2018</t>
+  </si>
+  <si>
+    <t>Close to Office, lots of good locations for dinner, close to REI, close to the freeway.  Great customer service with clean tidy rooms, quiet and a fair amount of parking.  i would recommend this location to anybody wanting to stay in the areaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r553856015-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>553856015</t>
+  </si>
+  <si>
+    <t>01/14/2018</t>
+  </si>
+  <si>
+    <t>nice and new</t>
+  </si>
+  <si>
+    <t>Clean, new property has a few wrinkles to iron out.  The decor Hampton is trying out is trying to hard trendy, and I hope it passes quickly- barn door sliding shower doors and closet/bathroom door...bed in a weird place making it awkward to watch tv or get to the bathroom.  But it was quiet, good location, priced well and mostly friendly.  MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Clean, new property has a few wrinkles to iron out.  The decor Hampton is trying out is trying to hard trendy, and I hope it passes quickly- barn door sliding shower doors and closet/bathroom door...bed in a weird place making it awkward to watch tv or get to the bathroom.  But it was quiet, good location, priced well and mostly friendly.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r553021028-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>553021028</t>
+  </si>
+  <si>
+    <t>01/10/2018</t>
+  </si>
+  <si>
+    <t>Nice and New well designed hotel</t>
+  </si>
+  <si>
+    <t>I stayed overnight for business. Super clean, attentive staff and New well designed facility.  Easy parking and check in and good internet and media services.  Nice breakfast in the early am Very fairly priced.  MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed overnight for business. Super clean, attentive staff and New well designed facility.  Easy parking and check in and good internet and media services.  Nice breakfast in the early am Very fairly priced.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r552411665-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>552411665</t>
+  </si>
+  <si>
+    <t>01/08/2018</t>
+  </si>
+  <si>
+    <t>Clean and comfortable. Nice staff.</t>
+  </si>
+  <si>
+    <t>I came here for business. The location is nothing special, but it was a nice place with a nice staff. Breakfast is good. Nice and quick because it's already out. There is a printer in the business center which was really helpful to me. MoreShow less</t>
+  </si>
+  <si>
+    <t>I came here for business. The location is nothing special, but it was a nice place with a nice staff. Breakfast is good. Nice and quick because it's already out. There is a printer in the business center which was really helpful to me. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r545708353-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>545708353</t>
+  </si>
+  <si>
+    <t>12/07/2017</t>
+  </si>
+  <si>
+    <t>New &amp; Modern</t>
+  </si>
+  <si>
+    <t>I've stayed at this location on three separate occasions. Can be tricky figuring out where to turn; the property is situated a little off the road down a winding street. The hotel was not particularly crowded on any of my visits, and was very quiet.The breakfast is a step up from other Hampton Inns that I have stayed at in the Denver area. Same goes for the decor &amp; furnishings in rooms. The only negative that stands out is the front desk employee I encountered on all three stays. A woman in her very early twenties with dark, shorter length hair in the evenings. She seems very uninterested &amp; gave me information I know to be incorrect. Because of this I had great difficulty &amp; inconvenience at check in. I have never been offered anything for my Diamond Status, despite a case with bottled water &amp; various snacks displayed directly on the front desk counter. Lastly, I was unable to print a very important document due to an issue with their system. I brought this to her attention &amp; she simply walked away. I am a pretty low maintenance, easy going guest. However, because my experience at check in has consistently been less than ideal, I am not likely to visit this location in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>I've stayed at this location on three separate occasions. Can be tricky figuring out where to turn; the property is situated a little off the road down a winding street. The hotel was not particularly crowded on any of my visits, and was very quiet.The breakfast is a step up from other Hampton Inns that I have stayed at in the Denver area. Same goes for the decor &amp; furnishings in rooms. The only negative that stands out is the front desk employee I encountered on all three stays. A woman in her very early twenties with dark, shorter length hair in the evenings. She seems very uninterested &amp; gave me information I know to be incorrect. Because of this I had great difficulty &amp; inconvenience at check in. I have never been offered anything for my Diamond Status, despite a case with bottled water &amp; various snacks displayed directly on the front desk counter. Lastly, I was unable to print a very important document due to an issue with their system. I brought this to her attention &amp; she simply walked away. I am a pretty low maintenance, easy going guest. However, because my experience at check in has consistently been less than ideal, I am not likely to visit this location in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r545653750-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>545653750</t>
+  </si>
+  <si>
+    <t>12/06/2017</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>After staying at this property, the only thing I would recommend is the roomy bathroom, everything else in this hotel has been a consistent let down. I would recommend that the staff revisit lessons on hospitality and spend less time being grumpy and miserable acting. The attitude of the staff doesn't reflect what I would consider "Hilton" standard, the only "Hilton" standard I found present in this property is the rate of the room. I have stayed at one star hotels that exhibit more hospitality than this three star hotel, with ammenties that aren" broken,  if this is what the "Hilton" standard encompasses, than I should consider staying at a mission or hostel.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Michelle F, General Manager at Hampton Inn Denver Tech Center South, responded to this reviewResponded December 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 8, 2017</t>
+  </si>
+  <si>
+    <t>After staying at this property, the only thing I would recommend is the roomy bathroom, everything else in this hotel has been a consistent let down. I would recommend that the staff revisit lessons on hospitality and spend less time being grumpy and miserable acting. The attitude of the staff doesn't reflect what I would consider "Hilton" standard, the only "Hilton" standard I found present in this property is the rate of the room. I have stayed at one star hotels that exhibit more hospitality than this three star hotel, with ammenties that aren" broken,  if this is what the "Hilton" standard encompasses, than I should consider staying at a mission or hostel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r543099444-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>543099444</t>
+  </si>
+  <si>
+    <t>11/23/2017</t>
+  </si>
+  <si>
+    <t>Completely Satisfied</t>
+  </si>
+  <si>
+    <t>It was a brand new and very clean hotel.  The staff was friendly and helpful.  The fitness center was large and well appointed, better than most hotel fitness rooms.  I will stay here again in the future.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r538387886-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>538387886</t>
+  </si>
+  <si>
+    <t>11/04/2017</t>
+  </si>
+  <si>
+    <t>Staff was rude</t>
+  </si>
+  <si>
+    <t>My parent was trying to get a cup of tea near the reception area and the reception staff was standing there watching as if he was not supposed to get them. The hair dryer broken and the manager was not feeling bad and even joked about it. The breakfast was bad, no meat, just potatoes and eggs. Holiday Inn Express is more generous with the breakfast, they got sausage patties.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r538203666-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>538203666</t>
+  </si>
+  <si>
+    <t>11/03/2017</t>
+  </si>
+  <si>
+    <t>Great hotel when in Centennial area of Denver</t>
+  </si>
+  <si>
+    <t>This is a new property and the facilities are great. Only out shown by the staff.  Very friendly and eager to assist. The rooms are a new configuration (for me) and I like the layout. The bathrooms are very roomy and the showers are huge. The morning breakfast is always good and lots of choices. Coffee is hot, just like I need it.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r536323411-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>536323411</t>
+  </si>
+  <si>
+    <t>10/26/2017</t>
+  </si>
+  <si>
+    <t>Thank You</t>
+  </si>
+  <si>
+    <t>This was a last minute decision and probably one of the best decisions I've ever made!  I enjoyed my stay.  Every aspect of my experience was perfect and I have zero complaints.  If there is a need to stay in the area again, I will definitely stay at this particular site.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r533201026-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>533201026</t>
+  </si>
+  <si>
+    <t>10/15/2017</t>
+  </si>
+  <si>
+    <t>This Hampton seems very bare bones compared to all others we have stayed in. The highlight of the room was the nice big walk-in shower rather than a shower/tub. Otherwise the room was small and there was very little room between bed and wall. Breakfast was not nearly as good as we are accustomed to at other Hamptons. This trip (10 days) we stayed in Best Western Plus and LaQuinta hotels that were nicer. We have always felt Hampton Inn was the top but it appears others are improving as Hampton (at least in this location) was disappointing.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r530292471-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>530292471</t>
+  </si>
+  <si>
+    <t>10/05/2017</t>
+  </si>
+  <si>
+    <t>Last Minute Overnight</t>
+  </si>
+  <si>
+    <t>Brand New property. Convenient location next to Centennial airport. The rooms are Euro Modern and pleasing to the eye. Great staff, very friendly, ready to assist at a moments notice. Large selection of restaurants in the local area. Highly recommended!</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r530093247-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>530093247</t>
+  </si>
+  <si>
+    <t>10/04/2017</t>
+  </si>
+  <si>
+    <t>An Absolute Gem!</t>
+  </si>
+  <si>
+    <t>Ultra modern, with a really fresh look and feel in lobby and common areas. Rooms are spotless, beds are super comfortable and showers are outstanding. Even the bathroom amenities are high end. Last but certainly not least the complimentary buffet breakfast is varied and uniformly excellent. Highly recommended.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r525320035-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>525320035</t>
+  </si>
+  <si>
+    <t>09/17/2017</t>
+  </si>
+  <si>
+    <t>Great place. Very new. Good breakfast service.</t>
+  </si>
+  <si>
+    <t>I was pleased with every aspect of this hotel. Comfortable room. Breakfast food was good, better than all other Hamptons in which I have stayed, and there have been many! The decor was nice. Shower was clean and efficient. Plenty of nice, fresh towels. TV channel selections good.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r524537262-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>524537262</t>
+  </si>
+  <si>
+    <t>09/14/2017</t>
+  </si>
+  <si>
+    <t>Spanking brand new</t>
+  </si>
+  <si>
+    <t>This hotel still has that new smell.  Crisp bed coverings, fluffy pillows and comfortable comforter.    The WiFi is super fast and everyone who works there was upbeat and smiling.   The complimentary breakfast has a waffle bar, fresh fruit, eggs and a meat.  Filling and fresh.  I just wish they had a bar, but everything else is great and Top Golf is next door.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r523863799-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>523863799</t>
+  </si>
+  <si>
+    <t>09/12/2017</t>
+  </si>
+  <si>
+    <t>Rocky Mountain stay</t>
+  </si>
+  <si>
+    <t>Hotel was in great location less than mile from Broncos training camp. Breakfast was great with good selection every day. Close to Park Meadow Mall, for shopping and restaurants. Real easy access to I 25 to go north or south. Would definitely stay again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r520919730-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>520919730</t>
+  </si>
+  <si>
+    <t>09/03/2017</t>
+  </si>
+  <si>
+    <t>Excellent hotel for a good price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The staff was super friendly and helpful. The rooms were nice and clean. The pool was salt water, my kids don't like the salt water pools but I prefer it. The complimentary hot breakfast was excellent. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r520707330-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>520707330</t>
+  </si>
+  <si>
+    <t>NEW, New, new</t>
+  </si>
+  <si>
+    <t>I loved my stay here @ the Hampton Inn Denver Tech South. Rooms are so nice, clean, and comfortable. All staff was friendly and helpful. Coffee was great. Nice location out of the city but close. About an hour and a half from Rocky Mountain National Park, but a sweet ride. Stopped in Lyons and picked up a picnic lunch, in a tasty sandwich shop. Two exits away a great BBQ place Brothers BBQ. Great parking and a really close Walmart if you need anything. Win for me. A little tricky to get in, but I read a review that mention it so I just went slow, and straight.  Love this clean and new Hampton Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>I loved my stay here @ the Hampton Inn Denver Tech South. Rooms are so nice, clean, and comfortable. All staff was friendly and helpful. Coffee was great. Nice location out of the city but close. About an hour and a half from Rocky Mountain National Park, but a sweet ride. Stopped in Lyons and picked up a picnic lunch, in a tasty sandwich shop. Two exits away a great BBQ place Brothers BBQ. Great parking and a really close Walmart if you need anything. Win for me. A little tricky to get in, but I read a review that mention it so I just went slow, and straight.  Love this clean and new Hampton Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r518620986-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>518620986</t>
+  </si>
+  <si>
+    <t>08/28/2017</t>
+  </si>
+  <si>
+    <t>very comfortable</t>
+  </si>
+  <si>
+    <t>came to denver for reggae on the rocks.this hotel came up as the best value for our weekend. the view from the room was a wal mart roof. Know this coming in, and you have some cool staff. as always, hot coffee, and those cookies.the breakfast was as all hampton inn, I liked it. a little far from red rock, but very nice place Oh, and dude. the is an inflatable flamingo in the pool</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r516523046-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>516523046</t>
+  </si>
+  <si>
+    <t>08/22/2017</t>
+  </si>
+  <si>
+    <t>Very clean new hotel in good location. The TV was at 9-10 o'clock position in relationship to the bed making viewing awkward, but TV was very good.  You can't enter hotel directly from Easter St.  GPS may show wrong.  You have to go south on Joliet from Easter St. the turn east at unmarked first left (Very dark at night and needs Hampton inn sign at that corner badly!  Everything else about the hotel is excellent.  Very clean, good service, convenient.  All great.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r516027904-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>516027904</t>
+  </si>
+  <si>
+    <t>08/21/2017</t>
+  </si>
+  <si>
+    <t>Satisfied!</t>
+  </si>
+  <si>
+    <t>Very satisfied with my stay at the Hampton inn. I love the area around the dtc and could have gone with any other hotel in this area but I'm glad I chose the Hampton. Very clean, quiet(not too close to the interstate), comfortable rooms.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r515753549-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>515753549</t>
+  </si>
+  <si>
+    <t>08/20/2017</t>
+  </si>
+  <si>
+    <t>Excellent Experience</t>
+  </si>
+  <si>
+    <t>My spouse and I came to Denver to purchase a car. I found the Hampton online with a great price very close to the dealership where we were to pick up our new car. The hotel is new, clean, modern, simple to use and comfortable to live in for the hours we were there. Great location (if that part of Centennial, CO is your destination), Starbucks, Chipotle close by along with other restaurants sit down restaurants.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r513020712-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>513020712</t>
+  </si>
+  <si>
+    <t>08/14/2017</t>
+  </si>
+  <si>
+    <t>family visit</t>
+  </si>
+  <si>
+    <t>we stayed at this hotel because it was near family we were visiting.  Hotel staff was helpful with dining suggestions nearby. Located off the freeway so was quiet.  Also near a Wal-mart for last minutes purchases.I would stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r511073374-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>511073374</t>
+  </si>
+  <si>
+    <t>08/10/2017</t>
+  </si>
+  <si>
+    <t>Brand new Hotel</t>
+  </si>
+  <si>
+    <t>Brand new hotel (still smells a fresh paint). Modern concept but keeping Hampton's bussiness style.Well located if you are going to the Tech Center. However, there is no restaurant or place you can go at walking distance yet.Breakfast delicious!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r511204196-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>511204196</t>
+  </si>
+  <si>
+    <t>We stayed for 7 nights during our vacation in Denver. This hotel is absolutely excellent. It's a brand new hotel with modern facilities, great services, very friendly staff, very clean, and wonderful breakfast everyday. We really like their pool, free internet, and free computer/printer in the business center. This hotel is better than many 5 star hotels we have stayed except a fancy lobby.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r509206639-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>509206639</t>
+  </si>
+  <si>
+    <t>08/05/2017</t>
+  </si>
+  <si>
+    <t>The accommodation were very nice.</t>
+  </si>
+  <si>
+    <t>I love the fact this is a new hotel and the cleanliness of the hotel is great. I had no issues at this location. The breakfast was delicious. I just did not like that I had to go down a side road to get to the hotel when a entrance at the main road would be sufficient.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r507268107-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>507268107</t>
+  </si>
+  <si>
+    <t>07/30/2017</t>
+  </si>
+  <si>
+    <t>Brand new, friendly staff</t>
+  </si>
+  <si>
+    <t>Room was very clean and ready upon check-in.  As far as I could tell, they were the usual Hampton amenities and fixtures, but felt more upscale since everything was brand new!  Front desk staff was very quick to fix a minor issue (one key didn't work) and all staff I encountered were very friendly.  Place was a little hard to find, especially at night.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r506276210-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>506276210</t>
+  </si>
+  <si>
+    <t>07/27/2017</t>
+  </si>
+  <si>
+    <t>Love staying at Hampton Inn</t>
+  </si>
+  <si>
+    <t>Love Hampton Inns. Always a good experience. I will always stay at one unless there isn't one available. It's all about efficiency and convenience. The customer experience is their priority. Other hotel chains should pay attention.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r505867227-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>505867227</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>New location!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New location and it's nice! Modern, close to restaurants and highways. Great for meeting near Tech Center area. Service was solid and they allowed a late check out which was nice. Quiet and clean rooms! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r505686238-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>505686238</t>
+  </si>
+  <si>
+    <t>07/25/2017</t>
+  </si>
+  <si>
+    <t>Business Stay for One Night</t>
+  </si>
+  <si>
+    <t>Nearby Top Golf is source of nearby restaurant and was a welcome place to grab dinner, otherwise, no other nearby restaurants due to location of the new hotel in a growing mixed use area of Centennial.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r504653340-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>504653340</t>
+  </si>
+  <si>
+    <t>07/22/2017</t>
+  </si>
+  <si>
+    <t>A good nights rest!</t>
+  </si>
+  <si>
+    <t>Very nice new motel. Staff is very good, and the complimentary breakfast was a real treat! Motel is very quiet and comfortable. Comfortable, clean room with a great bed and a wonderful shower. We didn't use the other facilities, but there was a nice workout room available, and lots of seating in the pleasant breakfast area. Be sure to arrive before dark though, as the motel is situated in a quiet area that is a little off the beaten path, but worth the trip.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r503056876-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>503056876</t>
+  </si>
+  <si>
+    <t>07/17/2017</t>
+  </si>
+  <si>
+    <t>horrible experience</t>
+  </si>
+  <si>
+    <t>Unhelpful, rude, and overall unpleasant staff. Showers were "not in full working condition" because of construction. Got moved rooms 4 times. Hotel Manager was rude and made me feel that their mistake was my fault.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r502655614-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>502655614</t>
+  </si>
+  <si>
+    <t>07/16/2017</t>
+  </si>
+  <si>
+    <t>Beautiful new hotel</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay at the Hampton Inn Denver Tech South. It is a beautiful new hotel. Very clean. We enjoyed time in the pool and the complimentary breakfast. I would definitely stay here again. Very comfortable beds made for a great night of sleep!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r501799540-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>501799540</t>
+  </si>
+  <si>
+    <t>07/13/2017</t>
+  </si>
+  <si>
+    <t>Hamptonality at its finest!</t>
+  </si>
+  <si>
+    <t>This is a brand new hotel! Very nice and the staff was also very helpful and very understanding! The hot continental breakfast hosted an abundance of many items like omelets and waffles and cereal! Everything was excellent and top notch condition! Thanks for a great stay!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r497829232-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>497829232</t>
+  </si>
+  <si>
+    <t>07/01/2017</t>
+  </si>
+  <si>
+    <t>A wonderful experience!</t>
+  </si>
+  <si>
+    <t>The BEST hotel we've stayed at in the greater Denver area! Clean, clean, clean! The staff was extremely friendly and helpful. We usually stay closer to Denver, but the 5 minute drive difference was no big deal.  Having a WalMart in walking distance is a plus for anyone, , especially those traveling with children.  Top Golf is also right around the corner. This is a very safe area and we never had any worries about our vehicle. We will definitely stay at this wonderful hotel in our future travels to Denver.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1402,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1434,3324 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>71</v>
+      </c>
+      <c r="X6" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>71</v>
+      </c>
+      <c r="X7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>86</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>71</v>
+      </c>
+      <c r="X8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>86</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>71</v>
+      </c>
+      <c r="X9" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O10" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>71</v>
+      </c>
+      <c r="X10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>112</v>
+      </c>
+      <c r="X11" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>111</v>
+      </c>
+      <c r="O12" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" t="s">
+        <v>124</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>125</v>
+      </c>
+      <c r="O13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" t="s">
+        <v>130</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>131</v>
+      </c>
+      <c r="O14" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>132</v>
+      </c>
+      <c r="X14" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>136</v>
+      </c>
+      <c r="J15" t="s">
+        <v>137</v>
+      </c>
+      <c r="K15" t="s">
+        <v>138</v>
+      </c>
+      <c r="L15" t="s">
+        <v>139</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>131</v>
+      </c>
+      <c r="O15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>145</v>
+      </c>
+      <c r="O16" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>146</v>
+      </c>
+      <c r="X16" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>150</v>
+      </c>
+      <c r="J17" t="s">
+        <v>151</v>
+      </c>
+      <c r="K17" t="s">
+        <v>152</v>
+      </c>
+      <c r="L17" t="s">
+        <v>153</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>145</v>
+      </c>
+      <c r="O17" t="s">
+        <v>154</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>146</v>
+      </c>
+      <c r="X17" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>157</v>
+      </c>
+      <c r="J18" t="s">
+        <v>158</v>
+      </c>
+      <c r="K18" t="s">
+        <v>159</v>
+      </c>
+      <c r="L18" t="s">
+        <v>160</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>145</v>
+      </c>
+      <c r="O18" t="s">
+        <v>59</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>146</v>
+      </c>
+      <c r="X18" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>163</v>
+      </c>
+      <c r="J19" t="s">
+        <v>164</v>
+      </c>
+      <c r="K19" t="s">
+        <v>165</v>
+      </c>
+      <c r="L19" t="s">
+        <v>166</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>145</v>
+      </c>
+      <c r="O19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>146</v>
+      </c>
+      <c r="X19" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>169</v>
+      </c>
+      <c r="J20" t="s">
+        <v>170</v>
+      </c>
+      <c r="K20" t="s">
+        <v>171</v>
+      </c>
+      <c r="L20" t="s">
+        <v>172</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>173</v>
+      </c>
+      <c r="O20" t="s">
+        <v>154</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>175</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>176</v>
+      </c>
+      <c r="J21" t="s">
+        <v>177</v>
+      </c>
+      <c r="K21" t="s">
+        <v>178</v>
+      </c>
+      <c r="L21" t="s">
+        <v>179</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>180</v>
+      </c>
+      <c r="O21" t="s">
+        <v>59</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>181</v>
+      </c>
+      <c r="X21" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>184</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>185</v>
+      </c>
+      <c r="J22" t="s">
+        <v>186</v>
+      </c>
+      <c r="K22" t="s">
+        <v>187</v>
+      </c>
+      <c r="L22" t="s">
+        <v>188</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>173</v>
+      </c>
+      <c r="O22" t="s">
+        <v>59</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>189</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>190</v>
+      </c>
+      <c r="J23" t="s">
+        <v>191</v>
+      </c>
+      <c r="K23" t="s">
+        <v>192</v>
+      </c>
+      <c r="L23" t="s">
+        <v>193</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>194</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>195</v>
+      </c>
+      <c r="J24" t="s">
+        <v>196</v>
+      </c>
+      <c r="K24" t="s">
+        <v>197</v>
+      </c>
+      <c r="L24" t="s">
+        <v>198</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>199</v>
+      </c>
+      <c r="O24" t="s">
+        <v>59</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>200</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>201</v>
+      </c>
+      <c r="J25" t="s">
+        <v>202</v>
+      </c>
+      <c r="K25" t="s">
+        <v>203</v>
+      </c>
+      <c r="L25" t="s">
+        <v>204</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>199</v>
+      </c>
+      <c r="O25" t="s">
+        <v>205</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>206</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>207</v>
+      </c>
+      <c r="J26" t="s">
+        <v>208</v>
+      </c>
+      <c r="K26" t="s">
+        <v>178</v>
+      </c>
+      <c r="L26" t="s">
+        <v>209</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>199</v>
+      </c>
+      <c r="O26" t="s">
+        <v>154</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>2</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>210</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>211</v>
+      </c>
+      <c r="J27" t="s">
+        <v>212</v>
+      </c>
+      <c r="K27" t="s">
+        <v>213</v>
+      </c>
+      <c r="L27" t="s">
+        <v>214</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>215</v>
+      </c>
+      <c r="O27" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>216</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>217</v>
+      </c>
+      <c r="J28" t="s">
+        <v>218</v>
+      </c>
+      <c r="K28" t="s">
+        <v>219</v>
+      </c>
+      <c r="L28" t="s">
+        <v>220</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>199</v>
+      </c>
+      <c r="O28" t="s">
+        <v>205</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>221</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>222</v>
+      </c>
+      <c r="J29" t="s">
+        <v>223</v>
+      </c>
+      <c r="K29" t="s">
+        <v>224</v>
+      </c>
+      <c r="L29" t="s">
+        <v>225</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>215</v>
+      </c>
+      <c r="O29" t="s">
+        <v>59</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>226</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>227</v>
+      </c>
+      <c r="J30" t="s">
+        <v>228</v>
+      </c>
+      <c r="K30" t="s">
+        <v>229</v>
+      </c>
+      <c r="L30" t="s">
+        <v>230</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>215</v>
+      </c>
+      <c r="O30" t="s">
+        <v>59</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>231</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>232</v>
+      </c>
+      <c r="J31" t="s">
+        <v>233</v>
+      </c>
+      <c r="K31" t="s">
+        <v>234</v>
+      </c>
+      <c r="L31" t="s">
+        <v>235</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>215</v>
+      </c>
+      <c r="O31" t="s">
+        <v>154</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>236</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>237</v>
+      </c>
+      <c r="J32" t="s">
+        <v>238</v>
+      </c>
+      <c r="K32" t="s">
+        <v>239</v>
+      </c>
+      <c r="L32" t="s">
+        <v>240</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>215</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>241</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>242</v>
+      </c>
+      <c r="J33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K33" t="s">
+        <v>243</v>
+      </c>
+      <c r="L33" t="s">
+        <v>244</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>245</v>
+      </c>
+      <c r="O33" t="s">
+        <v>79</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>247</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>248</v>
+      </c>
+      <c r="J34" t="s">
+        <v>249</v>
+      </c>
+      <c r="K34" t="s">
+        <v>250</v>
+      </c>
+      <c r="L34" t="s">
+        <v>251</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>245</v>
+      </c>
+      <c r="O34" t="s">
+        <v>79</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>252</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>253</v>
+      </c>
+      <c r="J35" t="s">
+        <v>254</v>
+      </c>
+      <c r="K35" t="s">
+        <v>109</v>
+      </c>
+      <c r="L35" t="s">
+        <v>255</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>245</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>256</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>257</v>
+      </c>
+      <c r="J36" t="s">
+        <v>258</v>
+      </c>
+      <c r="K36" t="s">
+        <v>259</v>
+      </c>
+      <c r="L36" t="s">
+        <v>260</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>245</v>
+      </c>
+      <c r="O36" t="s">
+        <v>59</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>261</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>262</v>
+      </c>
+      <c r="J37" t="s">
+        <v>263</v>
+      </c>
+      <c r="K37" t="s">
+        <v>264</v>
+      </c>
+      <c r="L37" t="s">
+        <v>265</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>245</v>
+      </c>
+      <c r="O37" t="s">
+        <v>154</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>266</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>267</v>
+      </c>
+      <c r="J38" t="s">
+        <v>268</v>
+      </c>
+      <c r="K38" t="s">
+        <v>269</v>
+      </c>
+      <c r="L38" t="s">
+        <v>270</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>245</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>271</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>272</v>
+      </c>
+      <c r="J39" t="s">
+        <v>273</v>
+      </c>
+      <c r="K39" t="s">
+        <v>274</v>
+      </c>
+      <c r="L39" t="s">
+        <v>275</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>245</v>
+      </c>
+      <c r="O39" t="s">
+        <v>59</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>276</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>277</v>
+      </c>
+      <c r="J40" t="s">
+        <v>273</v>
+      </c>
+      <c r="K40" t="s">
+        <v>109</v>
+      </c>
+      <c r="L40" t="s">
+        <v>278</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>245</v>
+      </c>
+      <c r="O40" t="s">
+        <v>154</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>279</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>280</v>
+      </c>
+      <c r="J41" t="s">
+        <v>281</v>
+      </c>
+      <c r="K41" t="s">
+        <v>282</v>
+      </c>
+      <c r="L41" t="s">
+        <v>283</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>284</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>285</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>286</v>
+      </c>
+      <c r="J42" t="s">
+        <v>287</v>
+      </c>
+      <c r="K42" t="s">
+        <v>288</v>
+      </c>
+      <c r="L42" t="s">
+        <v>289</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>290</v>
+      </c>
+      <c r="O42" t="s">
+        <v>59</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>291</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>292</v>
+      </c>
+      <c r="J43" t="s">
+        <v>293</v>
+      </c>
+      <c r="K43" t="s">
+        <v>294</v>
+      </c>
+      <c r="L43" t="s">
+        <v>295</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>284</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>296</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>297</v>
+      </c>
+      <c r="J44" t="s">
+        <v>298</v>
+      </c>
+      <c r="K44" t="s">
+        <v>299</v>
+      </c>
+      <c r="L44" t="s">
+        <v>300</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>284</v>
+      </c>
+      <c r="O44" t="s">
+        <v>59</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>301</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>302</v>
+      </c>
+      <c r="J45" t="s">
+        <v>303</v>
+      </c>
+      <c r="K45" t="s">
+        <v>304</v>
+      </c>
+      <c r="L45" t="s">
+        <v>305</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>284</v>
+      </c>
+      <c r="O45" t="s">
+        <v>59</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>306</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>307</v>
+      </c>
+      <c r="J46" t="s">
+        <v>308</v>
+      </c>
+      <c r="K46" t="s">
+        <v>309</v>
+      </c>
+      <c r="L46" t="s">
+        <v>310</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>284</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>311</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>312</v>
+      </c>
+      <c r="J47" t="s">
+        <v>313</v>
+      </c>
+      <c r="K47" t="s">
+        <v>314</v>
+      </c>
+      <c r="L47" t="s">
+        <v>315</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>284</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>316</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>317</v>
+      </c>
+      <c r="J48" t="s">
+        <v>318</v>
+      </c>
+      <c r="K48" t="s">
+        <v>319</v>
+      </c>
+      <c r="L48" t="s">
+        <v>320</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>284</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>321</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>322</v>
+      </c>
+      <c r="J49" t="s">
+        <v>323</v>
+      </c>
+      <c r="K49" t="s">
+        <v>324</v>
+      </c>
+      <c r="L49" t="s">
+        <v>325</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>284</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>326</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>327</v>
+      </c>
+      <c r="J50" t="s">
+        <v>328</v>
+      </c>
+      <c r="K50" t="s">
+        <v>329</v>
+      </c>
+      <c r="L50" t="s">
+        <v>330</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>290</v>
+      </c>
+      <c r="O50" t="s">
+        <v>154</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_99.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_99.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="532">
   <si>
     <t>STR#</t>
   </si>
@@ -150,18 +150,153 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/02/2018</t>
+    <t>09/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r612327738-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>609128</t>
+  </si>
+  <si>
+    <t>12384295</t>
+  </si>
+  <si>
+    <t>612327738</t>
+  </si>
+  <si>
+    <t>08/30/2018</t>
+  </si>
+  <si>
+    <t>awesome hotel</t>
+  </si>
+  <si>
+    <t>When we walked in I said "wow, this is so nice."  Clean and beautiful room , lobby and breakfast area.  Breakfast was wonderful.  they had everything from bacon and eggs, potatoes, oatmeal, waffles, fruit etc. Everything was awesome about this hotel including the price. Plus it was close to the concert venue, stores and restaurants.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r591276341-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>591276341</t>
+  </si>
+  <si>
+    <t>06/27/2018</t>
+  </si>
+  <si>
+    <t>Good Hotel Despite Snafus</t>
+  </si>
+  <si>
+    <t>We have stayed in hundreds of hotels over the last few years chain and non-chain.  This is a good hotel despite some irritating events. The positives:  clean property and room, large room, good room and bathroom lighting, great wifi, friendly staff, large parking lot, good breakfast, large HDTV with HD signal, all the electrical outlets you'll need, 2 quick elevators, guest laundry, restaurant's nearby( to drive to not walk),  clean linens. The negatives: water pressure needs to be improved in shower, we stayed a second night and came back to our room which had not been cleaned by 3:00 p.m. and ultimately wasn't until 4:00 p.m.  Also, we had an episode where the night clerk decided to help the pizza delivery guy find a customer by randomly calling the guest rooms. He called our room at 12:17 a.m. to ask us what our name was and if we had ordered a pizza. And NO WE DID NOT ORDER A PIZZA AT MIDNIGHT. So we had the extreme pleasure of having our sleep interrupted by the night clerk at 12:17 in the morning.  I'm not quite sure why he thought that was a good idea. NOTE TO HOTEL MANAGER-His name starts with an "A". You might want to give him some remedial training in protecting the safety and sleep of his guests. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Michelle F, General Manager at Hampton Inn Denver Tech Center South, responded to this reviewResponded July 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2018</t>
+  </si>
+  <si>
+    <t>We have stayed in hundreds of hotels over the last few years chain and non-chain.  This is a good hotel despite some irritating events. The positives:  clean property and room, large room, good room and bathroom lighting, great wifi, friendly staff, large parking lot, good breakfast, large HDTV with HD signal, all the electrical outlets you'll need, 2 quick elevators, guest laundry, restaurant's nearby( to drive to not walk),  clean linens. The negatives: water pressure needs to be improved in shower, we stayed a second night and came back to our room which had not been cleaned by 3:00 p.m. and ultimately wasn't until 4:00 p.m.  Also, we had an episode where the night clerk decided to help the pizza delivery guy find a customer by randomly calling the guest rooms. He called our room at 12:17 a.m. to ask us what our name was and if we had ordered a pizza. And NO WE DID NOT ORDER A PIZZA AT MIDNIGHT. So we had the extreme pleasure of having our sleep interrupted by the night clerk at 12:17 in the morning.  I'm not quite sure why he thought that was a good idea. NOTE TO HOTEL MANAGER-His name starts with an "A". You might want to give him some remedial training in protecting the safety and sleep of his guests. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r609195893-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>609195893</t>
+  </si>
+  <si>
+    <t>08/22/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great hotel, location, and value.  The room was spacious, clean, and up to date.  The staff was extremely friendly and helpful.  Every time I entered to lobby the front desk staff was very pleasant and engaging.  I would definitely recommend this hotel.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r606436695-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>606436695</t>
+  </si>
+  <si>
+    <t>08/14/2018</t>
+  </si>
+  <si>
+    <t>Very Good and Comfortable Stay</t>
+  </si>
+  <si>
+    <t>This hotel was very good. Its a new hotel and it was very clean, beds were very comfortable. Breakfast was good too. I wish there could be more choices for vegetarians. But it was over all very good stay. We enjoyed it</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r605805283-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>605805283</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>Feels like home</t>
+  </si>
+  <si>
+    <t>This seemed to be a new facility--everything was clean and neat.  The staff went out of their way to ensure that everything was just as I needed.  The room itself had everything that I needed and my son was able to get a complimentary shaving kit.  Highly reommmend</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r604420195-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>604420195</t>
+  </si>
+  <si>
+    <t>08/08/2018</t>
+  </si>
+  <si>
+    <t>Hampton Inn Centennial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand new property in great location! Staff super friendly and helpful. Complimentary breakfast very good and many choices! Bed super soft and comfy, bathrooms clean and shower had lots of pressure. Will stay again! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r601269787-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>601269787</t>
+  </si>
+  <si>
+    <t>07/30/2018</t>
+  </si>
+  <si>
+    <t>Very nice!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a very clean, comfy hotel. The breakfast was good....nice variety. The staff was very helpful and friendly. The pool was nice, but a hot tub would be wonderful. We liked the location and will stay there again. </t>
+  </si>
+  <si>
+    <t>July 2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r599735234-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
   </si>
   <si>
-    <t>609128</t>
-  </si>
-  <si>
-    <t>12384295</t>
-  </si>
-  <si>
     <t>599735234</t>
   </si>
   <si>
@@ -174,12 +309,6 @@
     <t>The staff during the day was excellent.  Richie is one of the most helpful person I've dealt with at a hotel in a long time.  The hotel is not a good place for a handicap person traveling alone.   I called three times before arriving to confirm wheelchair accessible bathroom that wasn't available when I arrived.</t>
   </si>
   <si>
-    <t>July 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r598658894-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
   </si>
   <si>
@@ -195,9 +324,6 @@
     <t xml:space="preserve">The staff was very friendly and helpful beginning with check-in to the people st the front desk. The only thing is they were low on breakfast items fairly early.  Rooms were clean. Beds and pillows were great. </t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r596460370-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
   </si>
   <si>
@@ -213,6 +339,42 @@
     <t xml:space="preserve">Wonderful staff! Extremely clean, and comfortable beds. Highly recommend staying here. If you want a good night's rest stay here. Close to Top golf which is fun, also close to many stores. Easy to find. The cute sayings they have all over the hotel brightened our evening and morning after staying in a hospital for a few days. </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r595942631-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>595942631</t>
+  </si>
+  <si>
+    <t>07/13/2018</t>
+  </si>
+  <si>
+    <t>Got the most out of this hotel</t>
+  </si>
+  <si>
+    <t>Best egg dishes I've ever had for a hotel free breakfast except there was no bacon...sausage was good...rooms were nice, the ac worked perfectly...5 mins from my office and 5-10 from my family...theres a Walmart supercenter right behind the hotel if you need anything...no complaints had a nice stay</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r593634709-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>593634709</t>
+  </si>
+  <si>
+    <t>07/06/2018</t>
+  </si>
+  <si>
+    <t>Love this Hampton Inn!</t>
+  </si>
+  <si>
+    <t>I've stayed at A LOT of Hamptons, and yes, you know what you're getting when staying at a Hampton but this was even a bit above a normal Hampton hotel! The room was a great size and very clean and the bathroom was huge and very nice! Great location right off of I-25 and fairly close to the airport. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I've stayed at A LOT of Hamptons, and yes, you know what you're getting when staying at a Hampton but this was even a bit above a normal Hampton hotel! The room was a great size and very clean and the bathroom was huge and very nice! Great location right off of I-25 and fairly close to the airport. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r593056972-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
   </si>
   <si>
@@ -228,15 +390,6 @@
     <t>Very nice new and clean hotel. Good hot breakfast. Friendly staff. Very easy access to freeway. Close to wal.art and other restaurants. About 20 min to downtown denver, via freeway. No hot tub, clean pool.MoreShow less</t>
   </si>
   <si>
-    <t>June 2018</t>
-  </si>
-  <si>
-    <t>Michelle F, General Manager at Hampton Inn Denver Tech Center South, responded to this reviewResponded 3 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 3 weeks ago</t>
-  </si>
-  <si>
     <t>Very nice new and clean hotel. Good hot breakfast. Friendly staff. Very easy access to freeway. Close to wal.art and other restaurants. About 20 min to downtown denver, via freeway. No hot tub, clean pool.More</t>
   </si>
   <si>
@@ -255,9 +408,6 @@
     <t>The hotel is fairly new, so the rooms and property are clean and in great condition. It’s located in a great area of DTC near Top Golf, a Walmart Super Center and several restaurants within walking distance. The staff was helpful and very friendly. The free breakfasts just ok, but hey, it’s free. Overall it was an excellent stay in great area of the city.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>The hotel is fairly new, so the rooms and property are clean and in great condition. It’s located in a great area of DTC near Top Golf, a Walmart Super Center and several restaurants within walking distance. The staff was helpful and very friendly. The free breakfasts just ok, but hey, it’s free. Overall it was an excellent stay in great area of the city.More</t>
   </si>
   <si>
@@ -282,6 +432,48 @@
     <t>Amazing hotel, nothing bad to say. The only thing I will say is bring your own drink. A bottle drink and a bag of chips was five dollars. I found the hotel quiet, comfortable, relaxing. There was a very nice breakfast in the morning. I would definitely stay againMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r589762146-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>589762146</t>
+  </si>
+  <si>
+    <t>06/22/2018</t>
+  </si>
+  <si>
+    <t>Awfull</t>
+  </si>
+  <si>
+    <t>There is a tremendous amount of noise from other floors.  I know the staff cant help this.  What they can help though is to adjust the closing mechanism on the doors.  They wind up and slam hard.  Hard enough that your fingers will be broken if they get in the door.  hard enough to slam and wake you up at 7 AM when the maids start cleaning.  I literally hate this hotel and left my stay early because of this.  I brought it up to the young lady at the front desk and she said a manager would contact me and a week later, no word.  This is the worst Hampton I have ever stayed at.  Most are quite good.MoreShow less</t>
+  </si>
+  <si>
+    <t>Denise-HiltonHelp, on behalf of management at Hampton Inn Denver Tech Center South, responded to this reviewResponded June 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2018</t>
+  </si>
+  <si>
+    <t>There is a tremendous amount of noise from other floors.  I know the staff cant help this.  What they can help though is to adjust the closing mechanism on the doors.  They wind up and slam hard.  Hard enough that your fingers will be broken if they get in the door.  hard enough to slam and wake you up at 7 AM when the maids start cleaning.  I literally hate this hotel and left my stay early because of this.  I brought it up to the young lady at the front desk and she said a manager would contact me and a week later, no word.  This is the worst Hampton I have ever stayed at.  Most are quite good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r585848436-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>585848436</t>
+  </si>
+  <si>
+    <t>06/07/2018</t>
+  </si>
+  <si>
+    <t>Nice property in Denver Tech Center</t>
+  </si>
+  <si>
+    <t>Rooms are nice, hotel staff are very friendly.  The hotel looks brand new and is easy to get to with plenty of parking.  You'll find the hotel pleasing.  The breakfast is good in the morning and the internet is fast.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rooms are nice, hotel staff are very friendly.  The hotel looks brand new and is easy to get to with plenty of parking.  You'll find the hotel pleasing.  The breakfast is good in the morning and the internet is fast.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r584000171-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
   </si>
   <si>
@@ -336,6 +528,39 @@
     <t>This hotel was nice, new and in a great area. The service was good and the rooms are on the higher end of Hampton Inn rooms. I would recommend this hotel for business travelers and families. There is a new Top Golf close by and a Walmart next door in case you need to pick up anything. It is a quick drive to many restaurants and shops in the area. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r576106725-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>576106725</t>
+  </si>
+  <si>
+    <t>04/27/2018</t>
+  </si>
+  <si>
+    <t>Average service and average food.</t>
+  </si>
+  <si>
+    <t>Spent two nights at this hotel which was recommended by the Hilton at Park Meadows.  It was fine except for the items I mentioned in the detail of this survey.  It could have been a much better stay if It was impressed by the some of the staff in terms of helpfulness and quick resolution.  I think the cleaning crew need to do a deep clean on the bath tub.  The smell of the room was also lingering from the last person who used it I assume.  Older gentleman.  Sorry I didn't get his name.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r575315978-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>575315978</t>
+  </si>
+  <si>
+    <t>04/23/2018</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The staff was terrific &amp; the room was nice &amp; very clean. The bed was comfortable. The bathroom was immaculate. I was there for a Science Olympiad State competition event &amp; the staff was great with having a whole bunch of kids in the </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r573369525-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
   </si>
   <si>
@@ -351,9 +576,6 @@
     <t>Excellent hotel, great breakfast, very friendly staff at breakfast.  Rooms are very clean and comfortable.  Hotel is close to restaurants such as the Outback, or retail locations like Target.  I will definitely return to this location for work or personal again. MoreShow less</t>
   </si>
   <si>
-    <t>April 2018</t>
-  </si>
-  <si>
     <t>Michelle F, General Manager at Hampton Inn Denver Tech Center South, responded to this reviewResponded April 16, 2018</t>
   </si>
   <si>
@@ -396,6 +618,36 @@
     <t>March 2018</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r567652039-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>567652039</t>
+  </si>
+  <si>
+    <t>03/20/2018</t>
+  </si>
+  <si>
+    <t>Top Golf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We were coming up from Colorado Springs to go to Top Golf. It was a 4 minute walk from the hotel. The rooms themselves seemed brand new. I also loved the bathroom. The soaps/shampoos were Neutrogena. My friend friend the breakfast and brought me two muffins. But they were da*n dine muffins. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r566393538-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>566393538</t>
+  </si>
+  <si>
+    <t>03/13/2018</t>
+  </si>
+  <si>
+    <t>Perhaps the Nicest Hotel I Have Ever Stayed in.</t>
+  </si>
+  <si>
+    <t>A few years ago, my friends and I stayed in the other Hampton Inn (a perfectly nice hotel in and of itself) in the area, and thought we were booking the same hotel.  We were pleasantly surprised to find we were in this brand new Hampton property.  The rooms were amazing, and so quiet (probably because of the design). This would be my first choice anytime I'm in the Denver area, and  I highly recommend treating yourself, and staying here</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r563597018-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
   </si>
   <si>
@@ -465,6 +717,42 @@
     <t>Close to Office, lots of good locations for dinner, close to REI, close to the freeway.  Great customer service with clean tidy rooms, quiet and a fair amount of parking.  i would recommend this location to anybody wanting to stay in the areaMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r556867935-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>556867935</t>
+  </si>
+  <si>
+    <t>01/28/2018</t>
+  </si>
+  <si>
+    <t>Great place for a business trip</t>
+  </si>
+  <si>
+    <t>Stayed here for a quick business trip and loved how clean and open the rooms were. The staff was incredibly accommodating to a few request my party and I had. Will certainly be back next time we are in the Denver area! MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for a quick business trip and loved how clean and open the rooms were. The staff was incredibly accommodating to a few request my party and I had. Will certainly be back next time we are in the Denver area! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r556664791-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>556664791</t>
+  </si>
+  <si>
+    <t>01/27/2018</t>
+  </si>
+  <si>
+    <t>New hotel, clean rooms, convenient to the DTC area</t>
+  </si>
+  <si>
+    <t>The stay was great. This hotel is new as it just opened in June 2017 and is super clean and spacious. We had to come in a night early for a sports tournament our kids were participating in around the Denver Tech Center area due to the impending ice/snow storm that would be arriving around midnight. We checked in and the front desk staff person was very nice and friendly. Our room was a typical room with 2 queen beds, but I loved the fact that they had a sliding barn door to separate the bathroom from the room itself. What a great space saving idea! I especially appreciated the fact that the hotel knew that the bad weather was coming and had staff ready to come early in the morning to clear the walks and still serve breakfast. There is also a Super WalMart conveniently located across the parking lot and tons of great restaurants within just a few minutes' drive from the hotel. It is also next door to a huge 3-story outdoor driving range/bar which looked like it could be fun for a group! I would definitely recommend this hotel and will stay here again if we are in the DTC area!MoreShow less</t>
+  </si>
+  <si>
+    <t>The stay was great. This hotel is new as it just opened in June 2017 and is super clean and spacious. We had to come in a night early for a sports tournament our kids were participating in around the Denver Tech Center area due to the impending ice/snow storm that would be arriving around midnight. We checked in and the front desk staff person was very nice and friendly. Our room was a typical room with 2 queen beds, but I loved the fact that they had a sliding barn door to separate the bathroom from the room itself. What a great space saving idea! I especially appreciated the fact that the hotel knew that the bad weather was coming and had staff ready to come early in the morning to clear the walks and still serve breakfast. There is also a Super WalMart conveniently located across the parking lot and tons of great restaurants within just a few minutes' drive from the hotel. It is also next door to a huge 3-story outdoor driving range/bar which looked like it could be fun for a group! I would definitely recommend this hotel and will stay here again if we are in the DTC area!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r553856015-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
   </si>
   <si>
@@ -480,9 +768,6 @@
     <t>Clean, new property has a few wrinkles to iron out.  The decor Hampton is trying out is trying to hard trendy, and I hope it passes quickly- barn door sliding shower doors and closet/bathroom door...bed in a weird place making it awkward to watch tv or get to the bathroom.  But it was quiet, good location, priced well and mostly friendly.  MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Clean, new property has a few wrinkles to iron out.  The decor Hampton is trying out is trying to hard trendy, and I hope it passes quickly- barn door sliding shower doors and closet/bathroom door...bed in a weird place making it awkward to watch tv or get to the bathroom.  But it was quiet, good location, priced well and mostly friendly.  More</t>
   </si>
   <si>
@@ -522,15 +807,51 @@
     <t>I came here for business. The location is nothing special, but it was a nice place with a nice staff. Breakfast is good. Nice and quick because it's already out. There is a printer in the business center which was really helpful to me. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r551674000-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>551674000</t>
+  </si>
+  <si>
+    <t>01/04/2018</t>
+  </si>
+  <si>
+    <t>Excellent stay</t>
+  </si>
+  <si>
+    <t>We visit family in the area of this hotel.  It is new and clean with a very friendly staff.  We definitely will be returning 2-3 times a year. The pool and workout room was nice. The breakfast room was clean and neat with a very enjoyable breakfast. The hotel was very quiet.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>We visit family in the area of this hotel.  It is new and clean with a very friendly staff.  We definitely will be returning 2-3 times a year. The pool and workout room was nice. The breakfast room was clean and neat with a very enjoyable breakfast. The hotel was very quiet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r545869187-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>545869187</t>
+  </si>
+  <si>
+    <t>12/07/2017</t>
+  </si>
+  <si>
+    <t>“Fixing a room”</t>
+  </si>
+  <si>
+    <t>I am typing this laying in bed at the relatively new Hampton Inn.  It is quite clean and relatively nice for the price.  Here’s the run.  It is nearly 10 PM and I have a very early departure tomorrow morning.  There is some sort of construction going on a floor beneath me with hammering and some power tools.  I called the front desk to verify that there was construction happening and ask if there really was construction and how long it would go on.  The response was “Yes, he’s fixing a room.”  When does he leave “Whenever.”  No offer to have the work cease or move rooms (which I wouldn’t want to do anyway). Very poor customer service.  There are lots of hotels within a few blocks of this place.  I’ll use one of them next time. MoreShow less</t>
+  </si>
+  <si>
+    <t>I am typing this laying in bed at the relatively new Hampton Inn.  It is quite clean and relatively nice for the price.  Here’s the run.  It is nearly 10 PM and I have a very early departure tomorrow morning.  There is some sort of construction going on a floor beneath me with hammering and some power tools.  I called the front desk to verify that there was construction happening and ask if there really was construction and how long it would go on.  The response was “Yes, he’s fixing a room.”  When does he leave “Whenever.”  No offer to have the work cease or move rooms (which I wouldn’t want to do anyway). Very poor customer service.  There are lots of hotels within a few blocks of this place.  I’ll use one of them next time. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r545708353-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
   </si>
   <si>
     <t>545708353</t>
   </si>
   <si>
-    <t>12/07/2017</t>
-  </si>
-  <si>
     <t>New &amp; Modern</t>
   </si>
   <si>
@@ -558,9 +879,6 @@
     <t>After staying at this property, the only thing I would recommend is the roomy bathroom, everything else in this hotel has been a consistent let down. I would recommend that the staff revisit lessons on hospitality and spend less time being grumpy and miserable acting. The attitude of the staff doesn't reflect what I would consider "Hilton" standard, the only "Hilton" standard I found present in this property is the rate of the room. I have stayed at one star hotels that exhibit more hospitality than this three star hotel, with ammenties that aren" broken,  if this is what the "Hilton" standard encompasses, than I should consider staying at a mission or hostel.MoreShow less</t>
   </si>
   <si>
-    <t>December 2017</t>
-  </si>
-  <si>
     <t>Michelle F, General Manager at Hampton Inn Denver Tech Center South, responded to this reviewResponded December 8, 2017</t>
   </si>
   <si>
@@ -585,6 +903,33 @@
     <t>It was a brand new and very clean hotel.  The staff was friendly and helpful.  The fitness center was large and well appointed, better than most hotel fitness rooms.  I will stay here again in the future.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r542901392-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>542901392</t>
+  </si>
+  <si>
+    <t>Awesome place.</t>
+  </si>
+  <si>
+    <t>The best Hampton in Colorado. This place is the cleanest and safest in Denver area. Looks like a brand new hotel and breakfast is great. Staff is very friendly specially the breakfast attendant did a great job</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r542125301-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>542125301</t>
+  </si>
+  <si>
+    <t>11/19/2017</t>
+  </si>
+  <si>
+    <t>Brand new and quite clean</t>
+  </si>
+  <si>
+    <t>This new hotel is great because its clean and does exactly what you need. Rooms were comfortable, Free wifi, free breakfast. I was only there for 1 night but I will definitely be using it again for future business trips</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r538387886-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
   </si>
   <si>
@@ -633,7 +978,34 @@
     <t>This was a last minute decision and probably one of the best decisions I've ever made!  I enjoyed my stay.  Every aspect of my experience was perfect and I have zero complaints.  If there is a need to stay in the area again, I will definitely stay at this particular site.</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r535826609-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>535826609</t>
+  </si>
+  <si>
+    <t>10/24/2017</t>
+  </si>
+  <si>
+    <t>Best Hotel in South Denver Tech Center</t>
+  </si>
+  <si>
+    <t>This hotel is far enough from the highway, the comfort level is up to standards, very clean, the price is affordable and best of all it is right next to top golf for all you golf lovers, not to mention Park Meadows Shopping Center is just around the corner.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r533576045-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>533576045</t>
+  </si>
+  <si>
+    <t>10/16/2017</t>
+  </si>
+  <si>
+    <t>Great night sleep &amp; comfortable</t>
+  </si>
+  <si>
+    <t>This hotel was a pleasant experience with nice staff.  Hotel was quiet, we got a great night sleep. The breakfast was good and a nice assortment.  Bed was very comfortable.  We used an Uber to get back to the airport.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r533201026-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
@@ -681,6 +1053,36 @@
     <t>Ultra modern, with a really fresh look and feel in lobby and common areas. Rooms are spotless, beds are super comfortable and showers are outstanding. Even the bathroom amenities are high end. Last but certainly not least the complimentary buffet breakfast is varied and uniformly excellent. Highly recommended.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r528663625-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>528663625</t>
+  </si>
+  <si>
+    <t>10/01/2017</t>
+  </si>
+  <si>
+    <t>New hotel, Denver tech area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice clean hotel, very nice staff.  Close to Denver tech area and Park Meadows mall. Signage can be improved since the actual entrance is off the main road. Breakfast had fewer items than what I am used to at other Hampton inns. Hot water temperature regulation can be improved as well since the water started getting colder mid-shower. Overall a neat and clean hotel! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r525634382-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>525634382</t>
+  </si>
+  <si>
+    <t>09/18/2017</t>
+  </si>
+  <si>
+    <t>Turn lemons into lemonade</t>
+  </si>
+  <si>
+    <t>Had issues with the entire room going dark from short in lamp. How this was handle was nothing short of perfect given the level of concern shown to me in making it right. The Maintenance person actually took time to leave me hand written letter the following day just to reconfirm everything was good.  Problems come up at times but how they are handled is what matters and this was handled perfect!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r525320035-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
   </si>
   <si>
@@ -726,6 +1128,36 @@
     <t>Hotel was in great location less than mile from Broncos training camp. Breakfast was great with good selection every day. Close to Park Meadow Mall, for shopping and restaurants. Real easy access to I 25 to go north or south. Would definitely stay again.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r523228264-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>523228264</t>
+  </si>
+  <si>
+    <t>09/10/2017</t>
+  </si>
+  <si>
+    <t>Great hotel !!</t>
+  </si>
+  <si>
+    <t>Great rooms, reasonable prices, very quite, very clean rooms. Staff was amazing. We came to this location for a family trip. The hotel is in a very quite area defenetly recommended place. Breakfast and internet included..</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r522709842-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>522709842</t>
+  </si>
+  <si>
+    <t>09/08/2017</t>
+  </si>
+  <si>
+    <t>Great newer Hampton!!</t>
+  </si>
+  <si>
+    <t>Loved this newer Hampton Inn! Clean and comfortable! Next to Top Golf and a Walmart close by which was so convenient! Location was great and easy to get to other areas. Nice staff!! Breakfast was good and coffee was really hot which was nice!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r520919730-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
   </si>
   <si>
@@ -774,15 +1206,42 @@
     <t>came to denver for reggae on the rocks.this hotel came up as the best value for our weekend. the view from the room was a wal mart roof. Know this coming in, and you have some cool staff. as always, hot coffee, and those cookies.the breakfast was as all hampton inn, I liked it. a little far from red rock, but very nice place Oh, and dude. the is an inflatable flamingo in the pool</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r516928399-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>516928399</t>
+  </si>
+  <si>
+    <t>08/23/2017</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>We stayed for four nights. Was close to our kids. Room was beautiful, new, beds comfy and had lots of pillows. The staff were very friendly and helpful. It was very close to stores, restaurants and gas stations. Absolutely had not one issue! That never happens, ever, till now!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r516446957-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>516446957</t>
+  </si>
+  <si>
+    <t>08/22/2017</t>
+  </si>
+  <si>
+    <t>Beautiful hotel!</t>
+  </si>
+  <si>
+    <t>Beautiful hotel, staff was nice. Really enjoyed it there. Will stay again. Pool was nice and great gym. Offered free breakfast and Internet. The manager was so sweet. Good location with a lot around the area!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r516523046-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
   </si>
   <si>
     <t>516523046</t>
   </si>
   <si>
-    <t>08/22/2017</t>
-  </si>
-  <si>
     <t>Very clean new hotel in good location. The TV was at 9-10 o'clock position in relationship to the bed making viewing awkward, but TV was very good.  You can't enter hotel directly from Easter St.  GPS may show wrong.  You have to go south on Joliet from Easter St. the turn east at unmarked first left (Very dark at night and needs Hampton inn sign at that corner badly!  Everything else about the hotel is excellent.  Very clean, good service, convenient.  All great.</t>
   </si>
   <si>
@@ -816,6 +1275,33 @@
     <t>My spouse and I came to Denver to purchase a car. I found the Hampton online with a great price very close to the dealership where we were to pick up our new car. The hotel is new, clean, modern, simple to use and comfortable to live in for the hours we were there. Great location (if that part of Centennial, CO is your destination), Starbucks, Chipotle close by along with other restaurants sit down restaurants.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r514115541-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>514115541</t>
+  </si>
+  <si>
+    <t>08/16/2017</t>
+  </si>
+  <si>
+    <t>New, very well maintained and excellent staff</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here for over 3 weeks. She is handicapped. The staff was extremely help full starting with the Manager, Will. Front desk was also excellent with Grace going out of her way to make sure we were well taken care of. we will be back</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r514116222-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>514116222</t>
+  </si>
+  <si>
+    <t>Newer Hotel needs to work out the kinks</t>
+  </si>
+  <si>
+    <t>This is a newer hotel and could use a few tweaks.    The room itself was new and clean.  However, there was a horrible noise coming from the exhaust fan in the bathroom.  When I mentioned it at check out, it seemed to be a known issue.    Also, the location is a bit tricky.  The hotel should increase signage so you don't end up driving past.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r513020712-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
   </si>
   <si>
@@ -855,24 +1341,51 @@
     <t>We stayed for 7 nights during our vacation in Denver. This hotel is absolutely excellent. It's a brand new hotel with modern facilities, great services, very friendly staff, very clean, and wonderful breakfast everyday. We really like their pool, free internet, and free computer/printer in the business center. This hotel is better than many 5 star hotels we have stayed except a fancy lobby.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r509818666-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>509818666</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>New Hampton</t>
+  </si>
+  <si>
+    <t>Everything you expect from a Hampton and a bit more. It has the newer, trendy look; almost European, but regular size American room. Very clean hotel with friendly, helpful staff and a good location if you need the southeast side by Centennial Airport. Lots of places to eat within a mile or two and there's a Walmart within walking distance if you forgot to pack anything. I'd recommend the View House for a good selection of craft beer and good food.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r509173121-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>509173121</t>
+  </si>
+  <si>
+    <t>08/05/2017</t>
+  </si>
+  <si>
+    <t>Worst Hilton I have ever stayed in.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff was not knowledgeable and got rude. We ran out of hot water in the mornings while taking a shower. Housekeeping failed to clean our room. Breakfast (scrambled eggs with ham) was barely warm, so I decided to have oatmeal instead- it was almost empty, so I scraped the bottom, and it wasn't even hot. We ate breakfast at 8:45. Next day we didn't even bother. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r509206639-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
   </si>
   <si>
     <t>509206639</t>
   </si>
   <si>
-    <t>08/05/2017</t>
-  </si>
-  <si>
     <t>The accommodation were very nice.</t>
   </si>
   <si>
     <t>I love the fact this is a new hotel and the cleanliness of the hotel is great. I had no issues at this location. The breakfast was delicious. I just did not like that I had to go down a side road to get to the hotel when a entrance at the main road would be sufficient.</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r507268107-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
   </si>
   <si>
@@ -906,15 +1419,56 @@
     <t>Love Hampton Inns. Always a good experience. I will always stay at one unless there isn't one available. It's all about efficiency and convenience. The customer experience is their priority. Other hotel chains should pay attention.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r506226830-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>506226830</t>
+  </si>
+  <si>
+    <t>Nice new property - still has some teething issues</t>
+  </si>
+  <si>
+    <t>Hotel is brand new - taxi's and my colleagues did not even know the hotel was where it is.
+Stayed here for two visits to Denver with one room with a king size bed on the second floor and one room with two queen size beds on the forth floor.
+Rooms were comfortable and well appointed with sofa, desk, wardrobes, huge TV and nice toiletries in the bathroom that were replaced daily. Air-conditioning is ok but a bit noisy. Beds were extremely comfortable and pillows nice a firm.
+Breakfast is the usual breakfast buffet to be found in this "suites" type of hotel - some warmed eggs, breads and bagels, fruit, yoghurt etc. A juice machine and coffee were plentyfull.
+Staff were friendly and tried to help resolve issues.
+The biggest issue for me was that the "Do Not Disturb" signs do not fit the outside door handles - yet fit the inside door handle.
+Apparently the hotel was sent the incorrect size signs - but this means that they do not stay on the door. So on the first morning (a Sunday) I was woken at just after 8am by the staff wanting to clean, the next morning the same, the third morning I was actually stepping out of the shower to find the House Keeping lady entering the bathroom - I don't know who was more shocked !
+Hotel is also not really in an "easy" walking distance...Hotel is brand new - taxi's and my colleagues did not even know the hotel was where it is.Stayed here for two visits to Denver with one room with a king size bed on the second floor and one room with two queen size beds on the forth floor.Rooms were comfortable and well appointed with sofa, desk, wardrobes, huge TV and nice toiletries in the bathroom that were replaced daily. Air-conditioning is ok but a bit noisy. Beds were extremely comfortable and pillows nice a firm.Breakfast is the usual breakfast buffet to be found in this "suites" type of hotel - some warmed eggs, breads and bagels, fruit, yoghurt etc. A juice machine and coffee were plentyfull.Staff were friendly and tried to help resolve issues.The biggest issue for me was that the "Do Not Disturb" signs do not fit the outside door handles - yet fit the inside door handle.Apparently the hotel was sent the incorrect size signs - but this means that they do not stay on the door. So on the first morning (a Sunday) I was woken at just after 8am by the staff wanting to clean, the next morning the same, the third morning I was actually stepping out of the shower to find the House Keeping lady entering the bathroom - I don't know who was more shocked !Hotel is also not really in an "easy" walking distance of restaurants so you either need to eat before returning to the hotel, or have a car.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel is brand new - taxi's and my colleagues did not even know the hotel was where it is.
+Stayed here for two visits to Denver with one room with a king size bed on the second floor and one room with two queen size beds on the forth floor.
+Rooms were comfortable and well appointed with sofa, desk, wardrobes, huge TV and nice toiletries in the bathroom that were replaced daily. Air-conditioning is ok but a bit noisy. Beds were extremely comfortable and pillows nice a firm.
+Breakfast is the usual breakfast buffet to be found in this "suites" type of hotel - some warmed eggs, breads and bagels, fruit, yoghurt etc. A juice machine and coffee were plentyfull.
+Staff were friendly and tried to help resolve issues.
+The biggest issue for me was that the "Do Not Disturb" signs do not fit the outside door handles - yet fit the inside door handle.
+Apparently the hotel was sent the incorrect size signs - but this means that they do not stay on the door. So on the first morning (a Sunday) I was woken at just after 8am by the staff wanting to clean, the next morning the same, the third morning I was actually stepping out of the shower to find the House Keeping lady entering the bathroom - I don't know who was more shocked !
+Hotel is also not really in an "easy" walking distance...Hotel is brand new - taxi's and my colleagues did not even know the hotel was where it is.Stayed here for two visits to Denver with one room with a king size bed on the second floor and one room with two queen size beds on the forth floor.Rooms were comfortable and well appointed with sofa, desk, wardrobes, huge TV and nice toiletries in the bathroom that were replaced daily. Air-conditioning is ok but a bit noisy. Beds were extremely comfortable and pillows nice a firm.Breakfast is the usual breakfast buffet to be found in this "suites" type of hotel - some warmed eggs, breads and bagels, fruit, yoghurt etc. A juice machine and coffee were plentyfull.Staff were friendly and tried to help resolve issues.The biggest issue for me was that the "Do Not Disturb" signs do not fit the outside door handles - yet fit the inside door handle.Apparently the hotel was sent the incorrect size signs - but this means that they do not stay on the door. So on the first morning (a Sunday) I was woken at just after 8am by the staff wanting to clean, the next morning the same, the third morning I was actually stepping out of the shower to find the House Keeping lady entering the bathroom - I don't know who was more shocked !Hotel is also not really in an "easy" walking distance of restaurants so you either need to eat before returning to the hotel, or have a car.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r505937415-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>505937415</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>Poor breakfast for the price</t>
+  </si>
+  <si>
+    <t>Paid close to USD 200 for the room and have to take breakfast in paper dishes and plastic forks and knofes! Unaccepatble. Hote was clean and room good enough. But poor food service in a whole. Will not stay again</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r505867227-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
   </si>
   <si>
     <t>505867227</t>
   </si>
   <si>
-    <t>07/26/2017</t>
-  </si>
-  <si>
     <t>New location!</t>
   </si>
   <si>
@@ -951,15 +1505,45 @@
     <t>Very nice new motel. Staff is very good, and the complimentary breakfast was a real treat! Motel is very quiet and comfortable. Comfortable, clean room with a great bed and a wonderful shower. We didn't use the other facilities, but there was a nice workout room available, and lots of seating in the pleasant breakfast area. Be sure to arrive before dark though, as the motel is situated in a quiet area that is a little off the beaten path, but worth the trip.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r503977498-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>503977498</t>
+  </si>
+  <si>
+    <t>07/20/2017</t>
+  </si>
+  <si>
+    <t>Not a perfect visit, but not terrible</t>
+  </si>
+  <si>
+    <t>We made reservations online and checked in late on a Saturday night.  Person checking us in was not overly friendly, didn't really even converse with us!  We are Hilton Honors members and are usually offered a couple bottles of water, but not here.  The rooms were clean and spacious enough (typical Hampton), but our in-room coffee maker didn't have the part to put the coffee bag in, so had to run downstairs for my first cup - not a dealbreaker, just an inconvenience and for the rate we paid, I would expect better.  On the elevator Sunday morning, I learned one room didn't have any hot water for showers.  I mentioned I was a little unimpressed with the place and he said he thought they were going through "growing pains".  Not sure if they have recently changed mgmt. or remodeled or just exactly what that meant.  Breakfast was the usual - waffles, hot items, oatmeal, fruit, etc.  Like I mentioned before, not a terrible stay, just not the usual SUPER FRIENDLY place.  It's in a very nice area of Denver, very close to the Bronco's training facilities and 490 Tollway.  I would probably give them another chance.MoreShow less</t>
+  </si>
+  <si>
+    <t>We made reservations online and checked in late on a Saturday night.  Person checking us in was not overly friendly, didn't really even converse with us!  We are Hilton Honors members and are usually offered a couple bottles of water, but not here.  The rooms were clean and spacious enough (typical Hampton), but our in-room coffee maker didn't have the part to put the coffee bag in, so had to run downstairs for my first cup - not a dealbreaker, just an inconvenience and for the rate we paid, I would expect better.  On the elevator Sunday morning, I learned one room didn't have any hot water for showers.  I mentioned I was a little unimpressed with the place and he said he thought they were going through "growing pains".  Not sure if they have recently changed mgmt. or remodeled or just exactly what that meant.  Breakfast was the usual - waffles, hot items, oatmeal, fruit, etc.  Like I mentioned before, not a terrible stay, just not the usual SUPER FRIENDLY place.  It's in a very nice area of Denver, very close to the Bronco's training facilities and 490 Tollway.  I would probably give them another chance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r502945591-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>502945591</t>
+  </si>
+  <si>
+    <t>07/17/2017</t>
+  </si>
+  <si>
+    <t>Excellent staff and hotel location is great top notch A plus staff great new hotel location is so convenient and winner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wonderful place great staff location it is top notch will stay there again this is a winner for sure The atmosphere is a win win u cant miss with this place new nice beds nice room quiet safe excellent </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r503056876-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
   </si>
   <si>
     <t>503056876</t>
   </si>
   <si>
-    <t>07/17/2017</t>
-  </si>
-  <si>
     <t>horrible experience</t>
   </si>
   <si>
@@ -994,6 +1578,39 @@
   </si>
   <si>
     <t>This is a brand new hotel! Very nice and the staff was also very helpful and very understanding! The hot continental breakfast hosted an abundance of many items like omelets and waffles and cereal! Everything was excellent and top notch condition! Thanks for a great stay!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r499956539-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>499956539</t>
+  </si>
+  <si>
+    <t>07/09/2017</t>
+  </si>
+  <si>
+    <t>Nice place /Short Staffed</t>
+  </si>
+  <si>
+    <t>The hotel has been renovated within the last few years and the overall facilities.  I think adding A/C was an after thought with wierd back hoses coming from the downstairs rooms and places where steel plates have been put over the walkways... not a big deal but strange.They were extremely short staffed on Sat. night and the lone employee was clearly frustrated.  She couldn't be in three places at once.The breakfast was good.  A few hot options plus the standard fruit, pastries, waffles, and juice.  They could use a second waffle maker but I don't think space allows.  I can imagine it gets awfully busy when the hotel is full.The rates are cheaper for weekend nights since it is in a heavily professional business area.  Its a very nice area.  If you are on first floor ask for a room on the other side of the parking lot.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel has been renovated within the last few years and the overall facilities.  I think adding A/C was an after thought with wierd back hoses coming from the downstairs rooms and places where steel plates have been put over the walkways... not a big deal but strange.They were extremely short staffed on Sat. night and the lone employee was clearly frustrated.  She couldn't be in three places at once.The breakfast was good.  A few hot options plus the standard fruit, pastries, waffles, and juice.  They could use a second waffle maker but I don't think space allows.  I can imagine it gets awfully busy when the hotel is full.The rates are cheaper for weekend nights since it is in a heavily professional business area.  Its a very nice area.  If you are on first floor ask for a room on the other side of the parking lot.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r499126591-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>499126591</t>
+  </si>
+  <si>
+    <t>07/06/2017</t>
+  </si>
+  <si>
+    <t>Brand New</t>
+  </si>
+  <si>
+    <t>We stayed here during a busy holiday weekend, I believe it must've been the hotels opening week. The hotel was very clean, room was very clean, I don't think the staff was bad just a little more time to get trained in. Breakfast was good with a decent selection.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d12384295-r497829232-Hampton_Inn_Denver_Tech_Center_South-Centennial_Colorado.html</t>
@@ -1543,7 +2160,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1552,13 +2169,13 @@
         <v>53</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -1613,34 +2230,28 @@
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>5</v>
-      </c>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
@@ -1656,7 +2267,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1665,16 +2276,16 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
@@ -1683,10 +2294,10 @@
         <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="P4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
         <v>5</v>
@@ -1707,7 +2318,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -1723,7 +2334,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1732,37 +2343,37 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R5" t="n">
         <v>4</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
@@ -1771,14 +2382,10 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>71</v>
-      </c>
-      <c r="X5" t="s">
-        <v>72</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
@@ -1794,7 +2401,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1803,41 +2410,47 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" t="s">
         <v>75</v>
       </c>
-      <c r="J6" t="s">
-        <v>76</v>
-      </c>
-      <c r="K6" t="s">
-        <v>77</v>
-      </c>
-      <c r="L6" t="s">
-        <v>78</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>70</v>
-      </c>
-      <c r="O6" t="s">
-        <v>79</v>
-      </c>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>71</v>
-      </c>
-      <c r="X6" t="s">
-        <v>72</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
         <v>80</v>
       </c>
@@ -1879,28 +2492,34 @@
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>71</v>
-      </c>
-      <c r="X7" t="s">
-        <v>72</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -1916,34 +2535,34 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
         <v>88</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>89</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>90</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>91</v>
       </c>
-      <c r="L8" t="s">
-        <v>92</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>86</v>
-      </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -1964,14 +2583,10 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>71</v>
-      </c>
-      <c r="X8" t="s">
-        <v>72</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -1987,52 +2602,58 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
         <v>94</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>95</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>96</v>
       </c>
-      <c r="K9" t="s">
-        <v>97</v>
-      </c>
-      <c r="L9" t="s">
-        <v>98</v>
-      </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>71</v>
-      </c>
-      <c r="X9" t="s">
-        <v>72</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
@@ -2048,34 +2669,34 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" t="s">
         <v>100</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="L10" t="s">
         <v>101</v>
       </c>
-      <c r="J10" t="s">
-        <v>102</v>
-      </c>
-      <c r="K10" t="s">
-        <v>103</v>
-      </c>
-      <c r="L10" t="s">
-        <v>104</v>
-      </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O10" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2096,14 +2717,10 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>71</v>
-      </c>
-      <c r="X10" t="s">
-        <v>72</v>
-      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
@@ -2119,34 +2736,34 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" t="s">
+        <v>105</v>
+      </c>
+      <c r="L11" t="s">
         <v>106</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
-        <v>107</v>
-      </c>
-      <c r="J11" t="s">
-        <v>108</v>
-      </c>
-      <c r="K11" t="s">
-        <v>109</v>
-      </c>
-      <c r="L11" t="s">
-        <v>110</v>
-      </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="O11" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -2167,14 +2784,10 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>112</v>
-      </c>
-      <c r="X11" t="s">
-        <v>113</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12">
@@ -2190,7 +2803,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2199,25 +2812,25 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="L12" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="O12" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -2241,7 +2854,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13">
@@ -2257,7 +2870,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2266,28 +2879,28 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="J13" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="K13" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="L13" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="O13" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="P13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q13" t="n">
         <v>5</v>
@@ -2305,10 +2918,14 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>61</v>
+      </c>
+      <c r="X13" t="s">
+        <v>62</v>
+      </c>
       <c r="Y13" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14">
@@ -2324,7 +2941,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2333,49 +2950,53 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="J14" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="K14" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="L14" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="O14" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P14" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q14" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
       <c r="R14" t="n">
-        <v>5</v>
-      </c>
-      <c r="S14" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="X14" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="Y14" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15">
@@ -2391,7 +3012,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2400,49 +3021,43 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="J15" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="K15" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="L15" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="O15" t="s">
-        <v>59</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>61</v>
+      </c>
+      <c r="X15" t="s">
+        <v>62</v>
+      </c>
       <c r="Y15" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16">
@@ -2458,7 +3073,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2467,53 +3082,43 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="J16" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K16" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="L16" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="O16" t="s">
-        <v>59</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>5</v>
-      </c>
-      <c r="R16" t="n">
-        <v>5</v>
-      </c>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>146</v>
+        <v>61</v>
       </c>
       <c r="X16" t="s">
-        <v>147</v>
+        <v>62</v>
       </c>
       <c r="Y16" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17">
@@ -2529,7 +3134,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2538,53 +3143,53 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="J17" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="K17" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="L17" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>59</v>
+      </c>
+      <c r="O17" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
         <v>4</v>
       </c>
-      <c r="N17" t="s">
-        <v>145</v>
-      </c>
-      <c r="O17" t="s">
-        <v>154</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>4</v>
-      </c>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="X17" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Y17" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18">
@@ -2600,7 +3205,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2609,25 +3214,25 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="J18" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="K18" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="L18" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="O18" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -2649,13 +3254,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>146</v>
+        <v>61</v>
       </c>
       <c r="X18" t="s">
-        <v>147</v>
+        <v>62</v>
       </c>
       <c r="Y18" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19">
@@ -2671,7 +3276,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2680,25 +3285,25 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="J19" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="K19" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="L19" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="O19" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -2707,7 +3312,7 @@
         <v>5</v>
       </c>
       <c r="R19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2720,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>146</v>
+        <v>61</v>
       </c>
       <c r="X19" t="s">
-        <v>147</v>
+        <v>62</v>
       </c>
       <c r="Y19" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20">
@@ -2742,7 +3347,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2751,25 +3356,25 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="J20" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="K20" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="L20" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="O20" t="s">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2780,10 +3385,14 @@
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>61</v>
+      </c>
+      <c r="X20" t="s">
+        <v>62</v>
+      </c>
       <c r="Y20" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21">
@@ -2799,7 +3408,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2808,47 +3417,53 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J21" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="K21" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="L21" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
       <c r="O21" t="s">
-        <v>59</v>
-      </c>
-      <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
       <c r="R21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S21" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>181</v>
+        <v>61</v>
       </c>
       <c r="X21" t="s">
-        <v>182</v>
+        <v>62</v>
       </c>
       <c r="Y21" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22">
@@ -2864,7 +3479,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2873,41 +3488,41 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="J22" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="K22" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="L22" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O22" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="P22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2915,7 +3530,7 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23">
@@ -2931,7 +3546,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2940,35 +3555,49 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J23" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="K23" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="L23" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="s"/>
-      <c r="O23" t="s"/>
-      <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
-      <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>175</v>
+      </c>
+      <c r="O23" t="s">
+        <v>75</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24">
@@ -2984,7 +3613,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2993,25 +3622,25 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="J24" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="K24" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="L24" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="O24" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -3032,10 +3661,14 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>186</v>
+      </c>
+      <c r="X24" t="s">
+        <v>187</v>
+      </c>
       <c r="Y24" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25">
@@ -3051,7 +3684,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3060,25 +3693,25 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="J25" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="K25" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="L25" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="O25" t="s">
-        <v>205</v>
+        <v>69</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -3102,7 +3735,7 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26">
@@ -3118,7 +3751,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3127,37 +3760,41 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="J26" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="K26" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="L26" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
         <v>199</v>
       </c>
       <c r="O26" t="s">
-        <v>154</v>
-      </c>
-      <c r="P26" t="s"/>
-      <c r="Q26" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
       <c r="R26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -3165,7 +3802,7 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27">
@@ -3181,7 +3818,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3190,25 +3827,25 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="J27" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="K27" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="L27" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="O27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -3232,7 +3869,7 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28">
@@ -3248,7 +3885,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3257,16 +3894,16 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="J28" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K28" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="L28" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
@@ -3275,20 +3912,16 @@
         <v>199</v>
       </c>
       <c r="O28" t="s">
-        <v>205</v>
+        <v>53</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
       </c>
-      <c r="Q28" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q28" t="s"/>
       <c r="R28" t="n">
         <v>5</v>
       </c>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
         <v>5</v>
@@ -3299,7 +3932,7 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29">
@@ -3315,7 +3948,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3324,38 +3957,34 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="J29" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="K29" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="L29" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N29" t="s">
         <v>215</v>
       </c>
       <c r="O29" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="P29" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q29" t="s"/>
       <c r="R29" t="n">
-        <v>4</v>
-      </c>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
         <v>5</v>
@@ -3363,10 +3992,14 @@
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>216</v>
+      </c>
+      <c r="X29" t="s">
+        <v>217</v>
+      </c>
       <c r="Y29" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30">
@@ -3382,7 +4015,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3391,16 +4024,16 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="J30" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="K30" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="L30" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
@@ -3409,7 +4042,7 @@
         <v>215</v>
       </c>
       <c r="O30" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="P30" t="n">
         <v>4</v>
@@ -3433,7 +4066,7 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31">
@@ -3449,7 +4082,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3458,25 +4091,25 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="J31" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="K31" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="L31" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="O31" t="s">
-        <v>154</v>
+        <v>69</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -3497,10 +4130,14 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>230</v>
+      </c>
+      <c r="X31" t="s">
+        <v>231</v>
+      </c>
       <c r="Y31" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32">
@@ -3516,34 +4153,34 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
+        <v>233</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>234</v>
+      </c>
+      <c r="J32" t="s">
+        <v>235</v>
+      </c>
+      <c r="K32" t="s">
         <v>236</v>
       </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="L32" t="s">
         <v>237</v>
       </c>
-      <c r="J32" t="s">
-        <v>238</v>
-      </c>
-      <c r="K32" t="s">
-        <v>239</v>
-      </c>
-      <c r="L32" t="s">
-        <v>240</v>
-      </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3564,10 +4201,14 @@
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>230</v>
+      </c>
+      <c r="X32" t="s">
+        <v>231</v>
+      </c>
       <c r="Y32" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33">
@@ -3583,39 +4224,37 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
+        <v>239</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>240</v>
+      </c>
+      <c r="J33" t="s">
         <v>241</v>
       </c>
-      <c r="G33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="K33" t="s">
         <v>242</v>
       </c>
-      <c r="J33" t="s">
-        <v>238</v>
-      </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>243</v>
       </c>
-      <c r="L33" t="s">
-        <v>244</v>
-      </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="O33" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="P33" t="s"/>
-      <c r="Q33" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
       <c r="S33" t="n">
         <v>5</v>
@@ -3627,10 +4266,14 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>230</v>
+      </c>
+      <c r="X33" t="s">
+        <v>231</v>
+      </c>
       <c r="Y33" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34">
@@ -3646,54 +4289,62 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
+        <v>245</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>246</v>
+      </c>
+      <c r="J34" t="s">
         <v>247</v>
       </c>
-      <c r="G34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="K34" t="s">
         <v>248</v>
       </c>
-      <c r="J34" t="s">
+      <c r="L34" t="s">
         <v>249</v>
       </c>
-      <c r="K34" t="s">
-        <v>250</v>
-      </c>
-      <c r="L34" t="s">
-        <v>251</v>
-      </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="O34" t="s">
-        <v>79</v>
-      </c>
-      <c r="P34" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
       <c r="Q34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R34" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
       <c r="S34" t="n">
         <v>5</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>230</v>
+      </c>
+      <c r="X34" t="s">
+        <v>231</v>
+      </c>
       <c r="Y34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35">
@@ -3709,22 +4360,22 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
+        <v>251</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
         <v>252</v>
       </c>
-      <c r="G35" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>253</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>254</v>
-      </c>
-      <c r="K35" t="s">
-        <v>109</v>
       </c>
       <c r="L35" t="s">
         <v>255</v>
@@ -3733,16 +4384,16 @@
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="P35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R35" t="n">
         <v>5</v>
@@ -3757,10 +4408,14 @@
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
+      <c r="W35" t="s">
+        <v>230</v>
+      </c>
+      <c r="X35" t="s">
+        <v>231</v>
+      </c>
       <c r="Y35" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36">
@@ -3776,7 +4431,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3785,25 +4440,25 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J36" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K36" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L36" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="O36" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -3812,7 +4467,7 @@
         <v>5</v>
       </c>
       <c r="R36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -3824,10 +4479,14 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>230</v>
+      </c>
+      <c r="X36" t="s">
+        <v>231</v>
+      </c>
       <c r="Y36" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37">
@@ -3843,7 +4502,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -3852,25 +4511,25 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="J37" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K37" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L37" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="O37" t="s">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -3891,10 +4550,14 @@
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>230</v>
+      </c>
+      <c r="X37" t="s">
+        <v>231</v>
+      </c>
       <c r="Y37" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38">
@@ -3910,7 +4573,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -3919,49 +4582,39 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="J38" t="s">
+        <v>272</v>
+      </c>
+      <c r="K38" t="s">
+        <v>273</v>
+      </c>
+      <c r="L38" t="s">
+        <v>274</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
         <v>268</v>
       </c>
-      <c r="K38" t="s">
-        <v>269</v>
-      </c>
-      <c r="L38" t="s">
-        <v>270</v>
-      </c>
-      <c r="M38" t="n">
-        <v>5</v>
-      </c>
-      <c r="N38" t="s">
-        <v>245</v>
-      </c>
       <c r="O38" t="s">
-        <v>53</v>
-      </c>
-      <c r="P38" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>5</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>5</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39">
@@ -3977,7 +4630,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -3986,25 +4639,25 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
+        <v>277</v>
+      </c>
+      <c r="J39" t="s">
         <v>272</v>
       </c>
-      <c r="J39" t="s">
-        <v>273</v>
-      </c>
       <c r="K39" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="L39" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>245</v>
+        <v>280</v>
       </c>
       <c r="O39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4018,7 +4671,7 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40">
@@ -4034,7 +4687,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4043,49 +4696,47 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="J40" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="K40" t="s">
-        <v>109</v>
+        <v>285</v>
       </c>
       <c r="L40" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="O40" t="s">
-        <v>154</v>
-      </c>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>5</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
       <c r="R40" t="n">
-        <v>4</v>
-      </c>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="W40" t="s">
+        <v>287</v>
+      </c>
+      <c r="X40" t="s">
+        <v>288</v>
+      </c>
       <c r="Y40" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
     </row>
     <row r="41">
@@ -4101,7 +4752,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4110,28 +4761,28 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
+        <v>291</v>
+      </c>
+      <c r="J41" t="s">
+        <v>292</v>
+      </c>
+      <c r="K41" t="s">
+        <v>293</v>
+      </c>
+      <c r="L41" t="s">
+        <v>294</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
         <v>280</v>
       </c>
-      <c r="J41" t="s">
-        <v>281</v>
-      </c>
-      <c r="K41" t="s">
-        <v>282</v>
-      </c>
-      <c r="L41" t="s">
-        <v>283</v>
-      </c>
-      <c r="M41" t="n">
-        <v>5</v>
-      </c>
-      <c r="N41" t="s">
-        <v>284</v>
-      </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="P41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q41" t="n">
         <v>5</v>
@@ -4152,7 +4803,7 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42">
@@ -4168,7 +4819,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4177,31 +4828,35 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="J42" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="K42" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="L42" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="O42" t="s">
-        <v>59</v>
-      </c>
-      <c r="P42" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
       <c r="Q42" t="n">
-        <v>4</v>
-      </c>
-      <c r="R42" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
       <c r="S42" t="n">
         <v>5</v>
       </c>
@@ -4215,7 +4870,7 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43">
@@ -4231,7 +4886,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4240,41 +4895,41 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="J43" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="K43" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="L43" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="P43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S43" t="n">
         <v>5</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -4282,7 +4937,7 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
     </row>
     <row r="44">
@@ -4298,7 +4953,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4307,49 +4962,35 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="J44" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="K44" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="L44" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
-      </c>
-      <c r="N44" t="s">
-        <v>284</v>
-      </c>
-      <c r="O44" t="s">
-        <v>59</v>
-      </c>
-      <c r="P44" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>5</v>
-      </c>
-      <c r="R44" t="n">
-        <v>4</v>
-      </c>
-      <c r="S44" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="n">
-        <v>5</v>
-      </c>
+      <c r="U44" t="s"/>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45">
@@ -4365,7 +5006,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4374,28 +5015,28 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="J45" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="K45" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="L45" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="O45" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="P45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q45" t="n">
         <v>5</v>
@@ -4416,7 +5057,7 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="46">
@@ -4432,7 +5073,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4441,34 +5082,34 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="J46" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="K46" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="L46" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="P46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q46" t="n">
         <v>5</v>
       </c>
       <c r="R46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -4483,7 +5124,7 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
     </row>
     <row r="47">
@@ -4499,7 +5140,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4508,41 +5149,41 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="J47" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="K47" t="s">
+        <v>323</v>
+      </c>
+      <c r="L47" t="s">
+        <v>324</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
         <v>314</v>
       </c>
-      <c r="L47" t="s">
-        <v>315</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="s">
-        <v>284</v>
-      </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="P47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R47" t="n">
         <v>5</v>
       </c>
       <c r="S47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
@@ -4550,7 +5191,7 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
     </row>
     <row r="48">
@@ -4566,7 +5207,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4575,38 +5216,32 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="J48" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="K48" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="L48" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="P48" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>5</v>
-      </c>
-      <c r="R48" t="n">
         <v>4</v>
       </c>
-      <c r="S48" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
         <v>5</v>
@@ -4617,7 +5252,7 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
     </row>
     <row r="49">
@@ -4633,7 +5268,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -4642,41 +5277,37 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="J49" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="K49" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="L49" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="M49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
-      </c>
-      <c r="P49" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
       <c r="R49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -4684,7 +5315,7 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
     </row>
     <row r="50">
@@ -4700,7 +5331,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -4709,25 +5340,25 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="J50" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="K50" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="L50" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="O50" t="s">
-        <v>154</v>
+        <v>69</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -4751,7 +5382,2568 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>330</v>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>340</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>341</v>
+      </c>
+      <c r="J51" t="s">
+        <v>342</v>
+      </c>
+      <c r="K51" t="s">
+        <v>343</v>
+      </c>
+      <c r="L51" t="s">
+        <v>344</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>314</v>
+      </c>
+      <c r="O51" t="s">
+        <v>117</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>345</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>346</v>
+      </c>
+      <c r="J52" t="s">
+        <v>347</v>
+      </c>
+      <c r="K52" t="s">
+        <v>348</v>
+      </c>
+      <c r="L52" t="s">
+        <v>349</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>339</v>
+      </c>
+      <c r="O52" t="s">
+        <v>69</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>350</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>351</v>
+      </c>
+      <c r="J53" t="s">
+        <v>352</v>
+      </c>
+      <c r="K53" t="s">
+        <v>353</v>
+      </c>
+      <c r="L53" t="s">
+        <v>354</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>339</v>
+      </c>
+      <c r="O53" t="s">
+        <v>69</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>355</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>356</v>
+      </c>
+      <c r="J54" t="s">
+        <v>357</v>
+      </c>
+      <c r="K54" t="s">
+        <v>358</v>
+      </c>
+      <c r="L54" t="s">
+        <v>359</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>339</v>
+      </c>
+      <c r="O54" t="s">
+        <v>69</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>360</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>361</v>
+      </c>
+      <c r="J55" t="s">
+        <v>362</v>
+      </c>
+      <c r="K55" t="s">
+        <v>363</v>
+      </c>
+      <c r="L55" t="s">
+        <v>364</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>339</v>
+      </c>
+      <c r="O55" t="s">
+        <v>69</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>365</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>366</v>
+      </c>
+      <c r="J56" t="s">
+        <v>367</v>
+      </c>
+      <c r="K56" t="s">
+        <v>368</v>
+      </c>
+      <c r="L56" t="s">
+        <v>369</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>339</v>
+      </c>
+      <c r="O56" t="s">
+        <v>60</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>370</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>371</v>
+      </c>
+      <c r="J57" t="s">
+        <v>372</v>
+      </c>
+      <c r="K57" t="s">
+        <v>373</v>
+      </c>
+      <c r="L57" t="s">
+        <v>374</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>339</v>
+      </c>
+      <c r="O57" t="s">
+        <v>75</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>375</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>376</v>
+      </c>
+      <c r="J58" t="s">
+        <v>377</v>
+      </c>
+      <c r="K58" t="s">
+        <v>378</v>
+      </c>
+      <c r="L58" t="s">
+        <v>379</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>339</v>
+      </c>
+      <c r="O58" t="s">
+        <v>75</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>380</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>381</v>
+      </c>
+      <c r="J59" t="s">
+        <v>382</v>
+      </c>
+      <c r="K59" t="s">
+        <v>383</v>
+      </c>
+      <c r="L59" t="s">
+        <v>384</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>339</v>
+      </c>
+      <c r="O59" t="s">
+        <v>75</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>385</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>386</v>
+      </c>
+      <c r="J60" t="s">
+        <v>382</v>
+      </c>
+      <c r="K60" t="s">
+        <v>387</v>
+      </c>
+      <c r="L60" t="s">
+        <v>388</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>389</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>391</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>392</v>
+      </c>
+      <c r="J61" t="s">
+        <v>393</v>
+      </c>
+      <c r="K61" t="s">
+        <v>394</v>
+      </c>
+      <c r="L61" t="s">
+        <v>395</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>389</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="s"/>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>396</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>397</v>
+      </c>
+      <c r="J62" t="s">
+        <v>398</v>
+      </c>
+      <c r="K62" t="s">
+        <v>399</v>
+      </c>
+      <c r="L62" t="s">
+        <v>400</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>389</v>
+      </c>
+      <c r="O62" t="s">
+        <v>75</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>401</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>402</v>
+      </c>
+      <c r="J63" t="s">
+        <v>403</v>
+      </c>
+      <c r="K63" t="s">
+        <v>404</v>
+      </c>
+      <c r="L63" t="s">
+        <v>405</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>389</v>
+      </c>
+      <c r="O63" t="s">
+        <v>75</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>406</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>407</v>
+      </c>
+      <c r="J64" t="s">
+        <v>403</v>
+      </c>
+      <c r="K64" t="s">
+        <v>184</v>
+      </c>
+      <c r="L64" t="s">
+        <v>408</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>389</v>
+      </c>
+      <c r="O64" t="s">
+        <v>75</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>409</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>410</v>
+      </c>
+      <c r="J65" t="s">
+        <v>411</v>
+      </c>
+      <c r="K65" t="s">
+        <v>412</v>
+      </c>
+      <c r="L65" t="s">
+        <v>413</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>389</v>
+      </c>
+      <c r="O65" t="s">
+        <v>69</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>414</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>415</v>
+      </c>
+      <c r="J66" t="s">
+        <v>416</v>
+      </c>
+      <c r="K66" t="s">
+        <v>417</v>
+      </c>
+      <c r="L66" t="s">
+        <v>418</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>389</v>
+      </c>
+      <c r="O66" t="s">
+        <v>60</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>419</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>420</v>
+      </c>
+      <c r="J67" t="s">
+        <v>421</v>
+      </c>
+      <c r="K67" t="s">
+        <v>422</v>
+      </c>
+      <c r="L67" t="s">
+        <v>423</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>389</v>
+      </c>
+      <c r="O67" t="s">
+        <v>75</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>424</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>425</v>
+      </c>
+      <c r="J68" t="s">
+        <v>421</v>
+      </c>
+      <c r="K68" t="s">
+        <v>426</v>
+      </c>
+      <c r="L68" t="s">
+        <v>427</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>389</v>
+      </c>
+      <c r="O68" t="s">
+        <v>69</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>428</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>429</v>
+      </c>
+      <c r="J69" t="s">
+        <v>430</v>
+      </c>
+      <c r="K69" t="s">
+        <v>431</v>
+      </c>
+      <c r="L69" t="s">
+        <v>432</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>389</v>
+      </c>
+      <c r="O69" t="s">
+        <v>75</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>433</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>434</v>
+      </c>
+      <c r="J70" t="s">
+        <v>435</v>
+      </c>
+      <c r="K70" t="s">
+        <v>436</v>
+      </c>
+      <c r="L70" t="s">
+        <v>437</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>389</v>
+      </c>
+      <c r="O70" t="s">
+        <v>69</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>438</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>439</v>
+      </c>
+      <c r="J71" t="s">
+        <v>435</v>
+      </c>
+      <c r="K71" t="s">
+        <v>184</v>
+      </c>
+      <c r="L71" t="s">
+        <v>440</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>389</v>
+      </c>
+      <c r="O71" t="s">
+        <v>60</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>441</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>442</v>
+      </c>
+      <c r="J72" t="s">
+        <v>443</v>
+      </c>
+      <c r="K72" t="s">
+        <v>444</v>
+      </c>
+      <c r="L72" t="s">
+        <v>445</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>446</v>
+      </c>
+      <c r="O72" t="s">
+        <v>69</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>447</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>448</v>
+      </c>
+      <c r="J73" t="s">
+        <v>449</v>
+      </c>
+      <c r="K73" t="s">
+        <v>450</v>
+      </c>
+      <c r="L73" t="s">
+        <v>451</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>389</v>
+      </c>
+      <c r="O73" t="s">
+        <v>69</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>2</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>452</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>453</v>
+      </c>
+      <c r="J74" t="s">
+        <v>449</v>
+      </c>
+      <c r="K74" t="s">
+        <v>454</v>
+      </c>
+      <c r="L74" t="s">
+        <v>455</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>446</v>
+      </c>
+      <c r="O74" t="s">
+        <v>75</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>456</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>457</v>
+      </c>
+      <c r="J75" t="s">
+        <v>458</v>
+      </c>
+      <c r="K75" t="s">
+        <v>459</v>
+      </c>
+      <c r="L75" t="s">
+        <v>460</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>461</v>
+      </c>
+      <c r="O75" t="s">
+        <v>69</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="s"/>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>462</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>463</v>
+      </c>
+      <c r="J76" t="s">
+        <v>464</v>
+      </c>
+      <c r="K76" t="s">
+        <v>465</v>
+      </c>
+      <c r="L76" t="s">
+        <v>466</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>446</v>
+      </c>
+      <c r="O76" t="s">
+        <v>75</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>467</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>468</v>
+      </c>
+      <c r="J77" t="s">
+        <v>464</v>
+      </c>
+      <c r="K77" t="s">
+        <v>469</v>
+      </c>
+      <c r="L77" t="s">
+        <v>470</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>446</v>
+      </c>
+      <c r="O77" t="s">
+        <v>69</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>472</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>473</v>
+      </c>
+      <c r="J78" t="s">
+        <v>474</v>
+      </c>
+      <c r="K78" t="s">
+        <v>475</v>
+      </c>
+      <c r="L78" t="s">
+        <v>476</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2</v>
+      </c>
+      <c r="N78" t="s">
+        <v>446</v>
+      </c>
+      <c r="O78" t="s">
+        <v>69</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>2</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>477</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>478</v>
+      </c>
+      <c r="J79" t="s">
+        <v>474</v>
+      </c>
+      <c r="K79" t="s">
+        <v>479</v>
+      </c>
+      <c r="L79" t="s">
+        <v>480</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>446</v>
+      </c>
+      <c r="O79" t="s">
+        <v>69</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>481</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>482</v>
+      </c>
+      <c r="J80" t="s">
+        <v>483</v>
+      </c>
+      <c r="K80" t="s">
+        <v>484</v>
+      </c>
+      <c r="L80" t="s">
+        <v>485</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>446</v>
+      </c>
+      <c r="O80" t="s">
+        <v>69</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>486</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>487</v>
+      </c>
+      <c r="J81" t="s">
+        <v>488</v>
+      </c>
+      <c r="K81" t="s">
+        <v>489</v>
+      </c>
+      <c r="L81" t="s">
+        <v>490</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>446</v>
+      </c>
+      <c r="O81" t="s">
+        <v>75</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>491</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>492</v>
+      </c>
+      <c r="J82" t="s">
+        <v>493</v>
+      </c>
+      <c r="K82" t="s">
+        <v>494</v>
+      </c>
+      <c r="L82" t="s">
+        <v>495</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>446</v>
+      </c>
+      <c r="O82" t="s">
+        <v>75</v>
+      </c>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="s"/>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>3</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>497</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>498</v>
+      </c>
+      <c r="J83" t="s">
+        <v>499</v>
+      </c>
+      <c r="K83" t="s">
+        <v>500</v>
+      </c>
+      <c r="L83" t="s">
+        <v>501</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>446</v>
+      </c>
+      <c r="O83" t="s">
+        <v>75</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>502</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>503</v>
+      </c>
+      <c r="J84" t="s">
+        <v>499</v>
+      </c>
+      <c r="K84" t="s">
+        <v>504</v>
+      </c>
+      <c r="L84" t="s">
+        <v>505</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="s">
+        <v>446</v>
+      </c>
+      <c r="O84" t="s">
+        <v>75</v>
+      </c>
+      <c r="P84" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>2</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>2</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>1</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>506</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>507</v>
+      </c>
+      <c r="J85" t="s">
+        <v>508</v>
+      </c>
+      <c r="K85" t="s">
+        <v>509</v>
+      </c>
+      <c r="L85" t="s">
+        <v>510</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>446</v>
+      </c>
+      <c r="O85" t="s">
+        <v>75</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>511</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>512</v>
+      </c>
+      <c r="J86" t="s">
+        <v>513</v>
+      </c>
+      <c r="K86" t="s">
+        <v>514</v>
+      </c>
+      <c r="L86" t="s">
+        <v>515</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>446</v>
+      </c>
+      <c r="O86" t="s">
+        <v>75</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>516</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>517</v>
+      </c>
+      <c r="J87" t="s">
+        <v>518</v>
+      </c>
+      <c r="K87" t="s">
+        <v>519</v>
+      </c>
+      <c r="L87" t="s">
+        <v>520</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>446</v>
+      </c>
+      <c r="O87" t="s">
+        <v>75</v>
+      </c>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="s"/>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>522</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>523</v>
+      </c>
+      <c r="J88" t="s">
+        <v>524</v>
+      </c>
+      <c r="K88" t="s">
+        <v>525</v>
+      </c>
+      <c r="L88" t="s">
+        <v>526</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>446</v>
+      </c>
+      <c r="O88" t="s">
+        <v>75</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>65855</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>527</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>528</v>
+      </c>
+      <c r="J89" t="s">
+        <v>529</v>
+      </c>
+      <c r="K89" t="s">
+        <v>530</v>
+      </c>
+      <c r="L89" t="s">
+        <v>531</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>461</v>
+      </c>
+      <c r="O89" t="s">
+        <v>60</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>531</v>
       </c>
     </row>
   </sheetData>
